--- a/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
@@ -668,10 +668,10 @@
         <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="O2" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
@@ -1034,10 +1034,10 @@
         <v>3.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="P5" t="n">
         <v>1.4</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
         <v>1.07</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.33</v>
@@ -1281,7 +1281,7 @@
         <v>2.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
@@ -1290,10 +1290,10 @@
         <v>2.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S7" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T7" t="n">
         <v>6.5</v>
@@ -1329,13 +1329,13 @@
         <v>301</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
@@ -1388,22 +1388,22 @@
         <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
         <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="O8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P8" t="n">
         <v>1.33</v>
@@ -1415,7 +1415,7 @@
         <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1510,22 +1510,22 @@
         <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
         <v>4.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1534,7 +1534,7 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
         <v>2.25</v>
@@ -1632,22 +1632,22 @@
         <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K10" t="n">
         <v>6.5</v>
       </c>
       <c r="L10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.46</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.5</v>
       </c>
       <c r="P10" t="n">
         <v>1.57</v>
@@ -1659,7 +1659,7 @@
         <v>2.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T10" t="n">
         <v>6</v>
@@ -1754,13 +1754,13 @@
         <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
         <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
         <v>3.5</v>
@@ -1778,10 +1778,10 @@
         <v>2.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S11" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T11" t="n">
         <v>12</v>
@@ -2236,7 +2236,7 @@
         <v>1.91</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
@@ -2248,34 +2248,34 @@
         <v>9.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M15" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="N15" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U15" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V15" t="n">
         <v>8.75</v>
@@ -2287,25 +2287,25 @@
         <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z15" t="n">
         <v>9.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC15" t="n">
         <v>65</v>
       </c>
       <c r="AD15" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE15" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF15" t="n">
         <v>24</v>
@@ -3282,10 +3282,10 @@
         <v>1.45</v>
       </c>
       <c r="P24" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R24" t="n">
         <v>2.12</v>
@@ -3294,7 +3294,7 @@
         <v>1.57</v>
       </c>
       <c r="T24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="U24" t="n">
         <v>7.8</v>
@@ -4050,16 +4050,16 @@
         <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J33" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.5</v>
@@ -4104,7 +4104,7 @@
         <v>81</v>
       </c>
       <c r="Z33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA33" t="n">
         <v>8.5</v>
@@ -4119,7 +4119,7 @@
         <v>101</v>
       </c>
       <c r="AE33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AF33" t="n">
         <v>5.5</v>
@@ -4178,13 +4178,13 @@
         <v>3.6</v>
       </c>
       <c r="J34" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K34" t="n">
         <v>7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M34" t="n">
         <v>2.5</v>
@@ -4300,13 +4300,13 @@
         <v>4.2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K35" t="n">
         <v>9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="J40" t="n">
         <v>1.07</v>
@@ -4810,13 +4810,13 @@
         <v>2.52</v>
       </c>
       <c r="R40" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S40" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T40" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U40" t="n">
         <v>7.5</v>
@@ -4825,10 +4825,10 @@
         <v>8.25</v>
       </c>
       <c r="W40" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X40" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y40" t="n">
         <v>30</v>
@@ -4837,25 +4837,25 @@
         <v>6.7</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB40" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC40" t="n">
         <v>90</v>
       </c>
       <c r="AD40" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE40" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF40" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH40" t="n">
         <v>80</v>
@@ -4864,7 +4864,7 @@
         <v>50</v>
       </c>
       <c r="AJ40" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
@@ -5265,55 +5265,55 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I44" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
         <v>1.08</v>
       </c>
       <c r="K44" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="L44" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M44" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="N44" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P44" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R44" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S44" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T44" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="U44" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="V44" t="n">
         <v>13</v>
       </c>
       <c r="W44" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X44" t="n">
         <v>37</v>
@@ -5322,13 +5322,13 @@
         <v>50</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA44" t="n">
         <v>6.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC44" t="n">
         <v>100</v>
@@ -5337,19 +5337,19 @@
         <v>900</v>
       </c>
       <c r="AE44" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AF44" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH44" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ44" t="n">
         <v>35</v>
@@ -5387,55 +5387,55 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I45" t="n">
         <v>3.25</v>
       </c>
       <c r="J45" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K45" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L45" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M45" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="N45" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O45" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P45" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R45" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S45" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T45" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U45" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V45" t="n">
         <v>9</v>
       </c>
       <c r="W45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X45" t="n">
         <v>18</v>
@@ -5444,19 +5444,19 @@
         <v>32</v>
       </c>
       <c r="Z45" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB45" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC45" t="n">
         <v>80</v>
       </c>
       <c r="AD45" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE45" t="n">
         <v>8.75</v>
@@ -5471,7 +5471,7 @@
         <v>40</v>
       </c>
       <c r="AI45" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ45" t="n">
         <v>40</v>
@@ -5634,22 +5634,22 @@
         <v>1.47</v>
       </c>
       <c r="H47" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K47" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M47" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M47" t="n">
-        <v>3.65</v>
       </c>
       <c r="N47" t="n">
         <v>1.72</v>
@@ -5658,67 +5658,67 @@
         <v>2</v>
       </c>
       <c r="P47" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R47" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T47" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="U47" t="n">
         <v>7.2</v>
       </c>
       <c r="V47" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="W47" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X47" t="n">
         <v>11.25</v>
       </c>
       <c r="Y47" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG47" t="n">
         <v>22</v>
       </c>
-      <c r="Z47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>23</v>
-      </c>
       <c r="AH47" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI47" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48">
@@ -5756,16 +5756,16 @@
         <v>1.57</v>
       </c>
       <c r="H48" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I48" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="J48" t="n">
         <v>1.07</v>
       </c>
       <c r="K48" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L48" t="n">
         <v>1.33</v>
@@ -5774,16 +5774,16 @@
         <v>3.05</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O48" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P48" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="R48" t="n">
         <v>2</v>
@@ -5792,16 +5792,16 @@
         <v>1.72</v>
       </c>
       <c r="T48" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="U48" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="V48" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W48" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X48" t="n">
         <v>13.5</v>
@@ -5810,34 +5810,34 @@
         <v>30</v>
       </c>
       <c r="Z48" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AB48" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD48" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE48" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AG48" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH48" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AI48" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ48" t="n">
         <v>65</v>
@@ -5875,19 +5875,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J49" t="n">
         <v>1.07</v>
       </c>
       <c r="K49" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="L49" t="n">
         <v>1.34</v>
@@ -5902,10 +5902,10 @@
         <v>1.72</v>
       </c>
       <c r="P49" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R49" t="n">
         <v>1.78</v>
@@ -5914,55 +5914,55 @@
         <v>1.93</v>
       </c>
       <c r="T49" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="U49" t="n">
         <v>9.75</v>
       </c>
       <c r="V49" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W49" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="X49" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z49" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB49" t="n">
         <v>14</v>
       </c>
       <c r="AC49" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD49" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE49" t="n">
         <v>9.75</v>
       </c>
       <c r="AF49" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG49" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH49" t="n">
         <v>50</v>
       </c>
       <c r="AI49" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ49" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H51" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
         <v>2.18</v>
@@ -6070,10 +6070,10 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M51" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="N51" t="n">
         <v>1.7</v>
@@ -6088,52 +6088,52 @@
         <v>2.5</v>
       </c>
       <c r="R51" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S51" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T51" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U51" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W51" t="n">
+        <v>40</v>
+      </c>
+      <c r="X51" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB51" t="n">
         <v>12</v>
-      </c>
-      <c r="U51" t="n">
-        <v>20</v>
-      </c>
-      <c r="V51" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="W51" t="n">
-        <v>45</v>
-      </c>
-      <c r="X51" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>11.5</v>
       </c>
       <c r="AC51" t="n">
         <v>45</v>
       </c>
       <c r="AD51" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE51" t="n">
         <v>8.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG51" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH51" t="n">
         <v>22</v>
@@ -6142,7 +6142,7 @@
         <v>17</v>
       </c>
       <c r="AJ51" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
@@ -6177,90 +6177,90 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="H52" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I52" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M52" t="n">
         <v>2.95</v>
       </c>
       <c r="N52" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O52" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P52" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="R52" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S52" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T52" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U52" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V52" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W52" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X52" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y52" t="n">
         <v>32</v>
       </c>
       <c r="Z52" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AA52" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AB52" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC52" t="n">
         <v>60</v>
       </c>
       <c r="AD52" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE52" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF52" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AG52" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH52" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI52" t="n">
         <v>19</v>
       </c>
       <c r="AJ52" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -7174,10 +7174,10 @@
         <v>3.5</v>
       </c>
       <c r="R64" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S64" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T64" t="n">
         <v>13</v>
@@ -7272,10 +7272,10 @@
         <v>2.88</v>
       </c>
       <c r="J65" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K65" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L65" t="n">
         <v>1.25</v>
@@ -7296,7 +7296,7 @@
         <v>2.75</v>
       </c>
       <c r="R65" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S65" t="n">
         <v>2.1</v>
@@ -7391,7 +7391,7 @@
         <v>4.1</v>
       </c>
       <c r="I66" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="J66" t="n">
         <v>1.04</v>
@@ -7406,7 +7406,7 @@
         <v>4.33</v>
       </c>
       <c r="N66" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O66" t="n">
         <v>2.15</v>
@@ -7418,7 +7418,7 @@
         <v>3.25</v>
       </c>
       <c r="R66" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S66" t="n">
         <v>2</v>
@@ -7751,64 +7751,64 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H69" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="I69" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="J69" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K69" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L69" t="n">
         <v>1.24</v>
       </c>
       <c r="M69" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="N69" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O69" t="n">
         <v>2.02</v>
       </c>
       <c r="P69" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R69" t="n">
         <v>1.87</v>
       </c>
       <c r="S69" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T69" t="n">
         <v>7.1</v>
       </c>
       <c r="U69" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="V69" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W69" t="n">
         <v>10</v>
       </c>
       <c r="X69" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z69" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA69" t="n">
         <v>8.25</v>
@@ -7820,22 +7820,22 @@
         <v>80</v>
       </c>
       <c r="AD69" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE69" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF69" t="n">
         <v>37</v>
       </c>
       <c r="AG69" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH69" t="n">
         <v>120</v>
       </c>
       <c r="AI69" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ69" t="n">
         <v>60</v>
@@ -7879,7 +7879,7 @@
         <v>4.55</v>
       </c>
       <c r="I70" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J70" t="n">
         <v>1.03</v>
@@ -7918,7 +7918,7 @@
         <v>45</v>
       </c>
       <c r="V70" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="W70" t="n">
         <v>120</v>
@@ -7954,7 +7954,7 @@
         <v>8.25</v>
       </c>
       <c r="AH70" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AI70" t="n">
         <v>10.5</v>
@@ -8126,10 +8126,10 @@
         <v>1.83</v>
       </c>
       <c r="J72" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L72" t="n">
         <v>1.29</v>
@@ -8614,22 +8614,22 @@
         <v>2.9</v>
       </c>
       <c r="J76" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L76" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M76" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O76" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P76" t="n">
         <v>1.4</v>
@@ -8726,36 +8726,96 @@
           <t>Al Wasl</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr"/>
-      <c r="AH77" t="inlineStr"/>
-      <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K77" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T77" t="n">
+        <v>20</v>
+      </c>
+      <c r="U77" t="n">
+        <v>50</v>
+      </c>
+      <c r="V77" t="n">
+        <v>23</v>
+      </c>
+      <c r="W77" t="n">
+        <v>200</v>
+      </c>
+      <c r="X77" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8788,36 +8848,96 @@
           <t>Ittihad Kalba</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="inlineStr"/>
-      <c r="AH78" t="inlineStr"/>
-      <c r="AI78" t="inlineStr"/>
-      <c r="AJ78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H78" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K78" t="n">
+        <v>9</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T78" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U78" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>8</v>
+      </c>
+      <c r="W78" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X78" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8850,36 +8970,96 @@
           <t>Khorfakkan</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="inlineStr"/>
-      <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr"/>
-      <c r="AH79" t="inlineStr"/>
-      <c r="AI79" t="inlineStr"/>
-      <c r="AJ79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I79" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K79" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T79" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U79" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V79" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W79" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X79" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9035,13 +9215,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="H81" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J81" t="n">
         <v>1.06</v>
@@ -9050,10 +9230,10 @@
         <v>7.1</v>
       </c>
       <c r="L81" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M81" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N81" t="n">
         <v>1.95</v>
@@ -9062,31 +9242,31 @@
         <v>1.75</v>
       </c>
       <c r="P81" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="R81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S81" t="n">
         <v>1.87</v>
       </c>
-      <c r="S81" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T81" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U81" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="V81" t="n">
         <v>8.5</v>
       </c>
       <c r="W81" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X81" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y81" t="n">
         <v>29</v>
@@ -9095,34 +9275,34 @@
         <v>7.1</v>
       </c>
       <c r="AA81" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB81" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD81" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE81" t="n">
         <v>10.25</v>
       </c>
       <c r="AF81" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG81" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI81" t="n">
         <v>35</v>
       </c>
       <c r="AJ81" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
@@ -1269,7 +1269,7 @@
         <v>1.07</v>
       </c>
       <c r="K7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
         <v>1.33</v>
@@ -1281,7 +1281,7 @@
         <v>2.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
@@ -1290,10 +1290,10 @@
         <v>2.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T7" t="n">
         <v>6.5</v>
@@ -1400,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="O8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P8" t="n">
         <v>1.33</v>
@@ -1415,7 +1415,7 @@
         <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1522,10 +1522,10 @@
         <v>4.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1534,7 +1534,7 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
         <v>2.25</v>
@@ -1644,10 +1644,10 @@
         <v>2.5</v>
       </c>
       <c r="N10" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="O10" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
         <v>1.57</v>
@@ -1659,7 +1659,7 @@
         <v>2.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T10" t="n">
         <v>6</v>
@@ -1778,10 +1778,10 @@
         <v>2.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T11" t="n">
         <v>12</v>
@@ -1808,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>51</v>
@@ -2233,94 +2233,94 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
         <v>3.75</v>
       </c>
       <c r="N15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
         <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="T15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V15" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AE15" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AI15" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2355,94 +2355,94 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="N16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O16" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P16" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="T16" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V16" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="W16" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X16" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="n">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="AE16" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
         <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="H17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2506,13 +2506,13 @@
         <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T17" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U17" t="n">
         <v>13.5</v>
@@ -2530,31 +2530,31 @@
         <v>40</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="n">
         <v>800</v>
       </c>
       <c r="AE17" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AG17" t="n">
         <v>9.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
         <v>21</v>
@@ -2893,13 +2893,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
         <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="J21" t="n">
         <v>1.04</v>
@@ -2926,22 +2926,22 @@
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U21" t="n">
         <v>34</v>
       </c>
       <c r="V21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X21" t="n">
         <v>51</v>
@@ -2953,7 +2953,7 @@
         <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB21" t="n">
         <v>21</v>
@@ -2977,7 +2977,7 @@
         <v>9.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ21" t="n">
         <v>29</v>
@@ -3158,10 +3158,10 @@
         <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3267,8 +3267,12 @@
       <c r="I24" t="n">
         <v>3.75</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6</v>
+      </c>
       <c r="L24" t="n">
         <v>1.47</v>
       </c>
@@ -3323,7 +3327,9 @@
       <c r="AC24" t="n">
         <v>150</v>
       </c>
-      <c r="AD24" t="inlineStr"/>
+      <c r="AD24" t="n">
+        <v>101</v>
+      </c>
       <c r="AE24" t="n">
         <v>8</v>
       </c>
@@ -5465,10 +5471,10 @@
         <v>16</v>
       </c>
       <c r="AG45" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH45" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="n">
         <v>32</v>
@@ -5527,13 +5533,13 @@
         <v>1.39</v>
       </c>
       <c r="M46" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="N46" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O46" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>
@@ -5542,10 +5548,10 @@
         <v>2.42</v>
       </c>
       <c r="R46" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S46" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T46" t="n">
         <v>10.25</v>
@@ -5554,7 +5560,7 @@
         <v>21</v>
       </c>
       <c r="V46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W46" t="n">
         <v>65</v>
@@ -5563,7 +5569,7 @@
         <v>40</v>
       </c>
       <c r="Y46" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="n">
         <v>6.3</v>
@@ -5575,25 +5581,25 @@
         <v>16</v>
       </c>
       <c r="AC46" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD46" t="n">
         <v>800</v>
       </c>
       <c r="AE46" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AF46" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG46" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>8.25</v>
       </c>
       <c r="AH46" t="n">
         <v>16.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ46" t="n">
         <v>32</v>
@@ -5914,7 +5920,7 @@
         <v>1.93</v>
       </c>
       <c r="T49" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="U49" t="n">
         <v>9.75</v>
@@ -5923,7 +5929,7 @@
         <v>8.75</v>
       </c>
       <c r="W49" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X49" t="n">
         <v>17.5</v>
@@ -5941,10 +5947,10 @@
         <v>14</v>
       </c>
       <c r="AC49" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD49" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE49" t="n">
         <v>9.75</v>
@@ -5956,7 +5962,7 @@
         <v>11.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="n">
         <v>30</v>
@@ -6177,13 +6183,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="H52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I52" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -6200,67 +6206,67 @@
         <v>1.75</v>
       </c>
       <c r="P52" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R52" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S52" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T52" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="U52" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="V52" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W52" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="X52" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y52" t="n">
         <v>32</v>
       </c>
       <c r="Z52" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA52" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AB52" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AD52" t="n">
         <v>500</v>
       </c>
       <c r="AE52" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AF52" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI52" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ52" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
@@ -7019,64 +7025,64 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I63" t="n">
         <v>2.4</v>
       </c>
       <c r="J63" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K63" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="L63" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M63" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="N63" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O63" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R63" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S63" t="n">
         <v>2.1</v>
       </c>
       <c r="T63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U63" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V63" t="n">
         <v>10</v>
       </c>
       <c r="W63" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X63" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y63" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z63" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AA63" t="n">
         <v>6.5</v>
@@ -7085,28 +7091,28 @@
         <v>13</v>
       </c>
       <c r="AC63" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AD63" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AE63" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG63" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AH63" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI63" t="n">
         <v>19</v>
       </c>
       <c r="AJ63" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
@@ -7263,19 +7269,19 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H65" t="n">
         <v>3.4</v>
       </c>
       <c r="I65" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J65" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K65" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="L65" t="n">
         <v>1.25</v>
@@ -7308,10 +7314,10 @@
         <v>12</v>
       </c>
       <c r="V65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X65" t="n">
         <v>19</v>
@@ -7347,7 +7353,7 @@
         <v>29</v>
       </c>
       <c r="AI65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ65" t="n">
         <v>29</v>
@@ -7385,19 +7391,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H66" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="J66" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K66" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L66" t="n">
         <v>1.2</v>
@@ -7451,7 +7457,7 @@
         <v>15</v>
       </c>
       <c r="AC66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD66" t="n">
         <v>500</v>
@@ -7460,7 +7466,7 @@
         <v>8</v>
       </c>
       <c r="AF66" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG66" t="n">
         <v>8.5</v>
@@ -7629,10 +7635,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H68" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I68" t="n">
         <v>1.75</v>
@@ -7647,7 +7653,7 @@
         <v>1.25</v>
       </c>
       <c r="M68" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="N68" t="n">
         <v>1.75</v>
@@ -7665,13 +7671,13 @@
         <v>1.7</v>
       </c>
       <c r="S68" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T68" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U68" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V68" t="n">
         <v>13.5</v>
@@ -7683,7 +7689,7 @@
         <v>37</v>
       </c>
       <c r="Y68" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z68" t="n">
         <v>7.9</v>
@@ -7692,16 +7698,16 @@
         <v>7</v>
       </c>
       <c r="AB68" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC68" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD68" t="n">
         <v>400</v>
       </c>
       <c r="AE68" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AF68" t="n">
         <v>8.75</v>
@@ -7754,10 +7760,10 @@
         <v>1.47</v>
       </c>
       <c r="H69" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="I69" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J69" t="n">
         <v>1.04</v>
@@ -7790,10 +7796,10 @@
         <v>1.83</v>
       </c>
       <c r="T69" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U69" t="n">
         <v>7.1</v>
-      </c>
-      <c r="U69" t="n">
-        <v>7</v>
       </c>
       <c r="V69" t="n">
         <v>8.25</v>
@@ -7802,7 +7808,7 @@
         <v>10</v>
       </c>
       <c r="X69" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y69" t="n">
         <v>26</v>
@@ -7835,7 +7841,7 @@
         <v>120</v>
       </c>
       <c r="AI69" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ69" t="n">
         <v>60</v>
@@ -7879,7 +7885,7 @@
         <v>4.55</v>
       </c>
       <c r="I70" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J70" t="n">
         <v>1.03</v>
@@ -7900,7 +7906,7 @@
         <v>2.5</v>
       </c>
       <c r="P70" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Q70" t="n">
         <v>3.4</v>
@@ -7918,7 +7924,7 @@
         <v>45</v>
       </c>
       <c r="V70" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="W70" t="n">
         <v>120</v>
@@ -7995,49 +8001,49 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H71" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I71" t="n">
         <v>3.6</v>
       </c>
       <c r="J71" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K71" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L71" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M71" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="N71" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O71" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P71" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="R71" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S71" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T71" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U71" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="V71" t="n">
         <v>9</v>
@@ -8046,28 +8052,28 @@
         <v>17.5</v>
       </c>
       <c r="X71" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z71" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA71" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AB71" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD71" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE71" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF71" t="n">
         <v>22</v>
@@ -8082,7 +8088,7 @@
         <v>32</v>
       </c>
       <c r="AJ71" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
@@ -8248,10 +8254,10 @@
         <v>5</v>
       </c>
       <c r="J73" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L73" t="n">
         <v>1.2</v>
@@ -8498,10 +8504,10 @@
         <v>10</v>
       </c>
       <c r="L75" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M75" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N75" t="n">
         <v>2.1</v>
@@ -8727,91 +8733,91 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="H77" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="I77" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="J77" t="n">
         <v>1.04</v>
       </c>
       <c r="K77" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L77" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M77" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="N77" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O77" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="P77" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q77" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R77" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S77" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T77" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="U77" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="V77" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W77" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="X77" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y77" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Z77" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AB77" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD77" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE77" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AF77" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AG77" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI77" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ77" t="n">
         <v>23</v>
@@ -9132,10 +9138,10 @@
         <v>2.02</v>
       </c>
       <c r="T80" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="U80" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V80" t="n">
         <v>8.5</v>
@@ -9165,7 +9171,7 @@
         <v>450</v>
       </c>
       <c r="AE80" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF80" t="n">
         <v>19</v>
@@ -9174,7 +9180,7 @@
         <v>11.5</v>
       </c>
       <c r="AH80" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI80" t="n">
         <v>29</v>
@@ -9254,7 +9260,7 @@
         <v>1.87</v>
       </c>
       <c r="T81" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U81" t="n">
         <v>8.75</v>
@@ -9266,7 +9272,7 @@
         <v>16</v>
       </c>
       <c r="X81" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y81" t="n">
         <v>29</v>
@@ -9284,13 +9290,13 @@
         <v>75</v>
       </c>
       <c r="AD81" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE81" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF81" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG81" t="n">
         <v>12.5</v>
@@ -9302,7 +9308,7 @@
         <v>35</v>
       </c>
       <c r="AJ81" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>1.07</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.33</v>
@@ -1296,7 +1296,7 @@
         <v>1.91</v>
       </c>
       <c r="T7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U7" t="n">
         <v>9</v>
@@ -1510,22 +1510,22 @@
         <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1632,16 +1632,16 @@
         <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K10" t="n">
         <v>6.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="M10" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N10" t="n">
         <v>2.63</v>
@@ -1665,13 +1665,13 @@
         <v>6</v>
       </c>
       <c r="U10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V10" t="n">
         <v>10</v>
       </c>
       <c r="W10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
@@ -1754,22 +1754,22 @@
         <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K11" t="n">
         <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>3.5</v>
       </c>
       <c r="N11" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="O11" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1876,13 +1876,13 @@
         <v>1.95</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
         <v>9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
         <v>3.25</v>
@@ -1998,13 +1998,13 @@
         <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
         <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M13" t="n">
         <v>4.5</v>
@@ -2120,13 +2120,13 @@
         <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
         <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
         <v>3.5</v>
@@ -2242,13 +2242,13 @@
         <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K15" t="n">
         <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
         <v>3.75</v>
@@ -2364,13 +2364,13 @@
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K16" t="n">
         <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M16" t="n">
         <v>4.33</v>
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="I19" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2727,13 +2727,13 @@
         <v>1.47</v>
       </c>
       <c r="M19" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="N19" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="O19" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P19" t="n">
         <v>1.5</v>
@@ -2742,22 +2742,22 @@
         <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S19" t="n">
         <v>1.72</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="U19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X19" t="n">
         <v>27</v>
@@ -2766,13 +2766,13 @@
         <v>40</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA19" t="n">
         <v>5.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
         <v>90</v>
@@ -2781,16 +2781,16 @@
         <v>900</v>
       </c>
       <c r="AE19" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
         <v>10.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -2830,36 +2830,92 @@
           <t>Quindio</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="V20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W20" t="n">
+        <v>22</v>
+      </c>
+      <c r="X20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2962,7 +3018,7 @@
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE21" t="n">
         <v>6.5</v>
@@ -3259,49 +3315,49 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
         <v>3.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K24" t="n">
         <v>6</v>
       </c>
       <c r="L24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.47</v>
       </c>
-      <c r="M24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.45</v>
-      </c>
       <c r="P24" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="R24" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="S24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T24" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="U24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="V24" t="n">
         <v>9.25</v>
@@ -3310,28 +3366,28 @@
         <v>16.5</v>
       </c>
       <c r="X24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="n">
         <v>6.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD24" t="n">
         <v>101</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF24" t="n">
         <v>18</v>
@@ -3340,7 +3396,7 @@
         <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI24" t="n">
         <v>45</v>
@@ -3498,36 +3554,88 @@
           <t>Narva</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.87</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.85</v>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W26" t="n">
+        <v>40</v>
+      </c>
+      <c r="X26" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3560,36 +3668,92 @@
           <t>Levadia</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.2</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T27" t="n">
+        <v>8</v>
+      </c>
+      <c r="U27" t="n">
+        <v>13</v>
+      </c>
+      <c r="V27" t="n">
+        <v>9</v>
+      </c>
+      <c r="W27" t="n">
+        <v>30</v>
+      </c>
+      <c r="X27" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3866,36 +4030,84 @@
           <t>KaPa</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7.4</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3.3</v>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T30" t="n">
+        <v>10</v>
+      </c>
+      <c r="U30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="V30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3928,36 +4140,84 @@
           <t>JaPS</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.05</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.4</v>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="T31" t="n">
+        <v>9</v>
+      </c>
+      <c r="U31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="V31" t="n">
+        <v>7</v>
+      </c>
+      <c r="W31" t="n">
+        <v>16</v>
+      </c>
+      <c r="X31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3990,36 +4250,88 @@
           <t>Lahti</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.08</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.91</v>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="T32" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="U32" t="n">
+        <v>14</v>
+      </c>
+      <c r="V32" t="n">
+        <v>9</v>
+      </c>
+      <c r="W32" t="n">
+        <v>35</v>
+      </c>
+      <c r="X32" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4062,13 +4374,13 @@
         <v>1.48</v>
       </c>
       <c r="J33" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="K33" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M33" t="n">
         <v>2.5</v>
@@ -4175,22 +4487,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
         <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J34" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M34" t="n">
         <v>2.5</v>
@@ -4217,7 +4529,7 @@
         <v>6</v>
       </c>
       <c r="U34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V34" t="n">
         <v>9.5</v>
@@ -4247,7 +4559,7 @@
         <v>501</v>
       </c>
       <c r="AE34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF34" t="n">
         <v>17</v>
@@ -4306,13 +4618,13 @@
         <v>4.2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K35" t="n">
         <v>9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
@@ -4418,36 +4730,92 @@
           <t>Vestri</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.9</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="U36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="V36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="W36" t="n">
+        <v>14</v>
+      </c>
+      <c r="X36" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4480,36 +4848,92 @@
           <t>KR Reykjavik</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T37" t="n">
+        <v>10</v>
+      </c>
+      <c r="U37" t="n">
+        <v>12</v>
+      </c>
+      <c r="V37" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="W37" t="n">
+        <v>19</v>
+      </c>
+      <c r="X37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4546,7 +4970,7 @@
         <v>1.47</v>
       </c>
       <c r="H38" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="I38" t="n">
         <v>5.4</v>
@@ -4554,22 +4978,22 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="M38" t="n">
         <v>6</v>
       </c>
       <c r="N38" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="O38" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="P38" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="R38" t="n">
         <v>1.42</v>
@@ -4578,40 +5002,40 @@
         <v>2.65</v>
       </c>
       <c r="T38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U38" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="V38" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W38" t="n">
         <v>13.5</v>
       </c>
       <c r="X38" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y38" t="n">
         <v>15.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA38" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC38" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD38" t="n">
         <v>150</v>
       </c>
       <c r="AE38" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF38" t="n">
         <v>45</v>
@@ -4620,10 +5044,10 @@
         <v>18</v>
       </c>
       <c r="AH38" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI38" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ38" t="n">
         <v>32</v>
@@ -5027,70 +5451,70 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.47</v>
+        <v>2.82</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I42" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="J42" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K42" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T42" t="n">
+        <v>7</v>
+      </c>
+      <c r="U42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>11</v>
+      </c>
+      <c r="W42" t="n">
+        <v>32</v>
+      </c>
+      <c r="X42" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA42" t="n">
         <v>6.1</v>
       </c>
-      <c r="L42" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M42" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T42" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="U42" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="V42" t="n">
-        <v>10</v>
-      </c>
-      <c r="W42" t="n">
-        <v>25</v>
-      </c>
-      <c r="X42" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AB42" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC42" t="n">
         <v>110</v>
@@ -5099,19 +5523,19 @@
         <v>101</v>
       </c>
       <c r="AE42" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="AF42" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AH42" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI42" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AJ42" t="n">
         <v>45</v>
@@ -5149,55 +5573,55 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J43" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K43" t="n">
         <v>6.7</v>
       </c>
       <c r="L43" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M43" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="N43" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O43" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P43" t="n">
         <v>1.47</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S43" t="n">
         <v>1.75</v>
       </c>
       <c r="T43" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="U43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V43" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="W43" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="X43" t="n">
         <v>45</v>
@@ -5215,7 +5639,7 @@
         <v>17.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD43" t="n">
         <v>900</v>
@@ -5224,13 +5648,13 @@
         <v>6.1</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AG43" t="n">
         <v>8.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI43" t="n">
         <v>15.5</v>
@@ -5637,31 +6061,31 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="H47" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="I47" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="J47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K47" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="L47" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M47" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N47" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P47" t="n">
         <v>1.39</v>
@@ -5670,61 +6094,61 @@
         <v>2.77</v>
       </c>
       <c r="R47" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="S47" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="T47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U47" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="V47" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="W47" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="X47" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y47" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB47" t="n">
         <v>24</v>
       </c>
-      <c r="Z47" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AC47" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AD47" t="n">
         <v>600</v>
       </c>
       <c r="AE47" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF47" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AG47" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AH47" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AI47" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AJ47" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
@@ -5881,94 +6305,94 @@
         </is>
       </c>
       <c r="G49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K49" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N49" t="n">
         <v>2.1</v>
       </c>
-      <c r="H49" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K49" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M49" t="n">
-        <v>3</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2</v>
-      </c>
       <c r="O49" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="P49" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="R49" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="S49" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="T49" t="n">
         <v>7.1</v>
       </c>
       <c r="U49" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="V49" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="W49" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X49" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z49" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF49" t="n">
         <v>14</v>
       </c>
-      <c r="AC49" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>18</v>
-      </c>
       <c r="AG49" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH49" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AI49" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ49" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50">
@@ -6002,36 +6426,88 @@
           <t>Tukums 2000</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.7</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.9</v>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="inlineStr"/>
-      <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U50" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="W50" t="n">
+        <v>13</v>
+      </c>
+      <c r="X50" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6076,16 +6552,16 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M51" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="N51" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O51" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="P51" t="n">
         <v>1.4</v>
@@ -6094,49 +6570,49 @@
         <v>2.5</v>
       </c>
       <c r="R51" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S51" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="T51" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="U51" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="V51" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W51" t="n">
         <v>40</v>
       </c>
       <c r="X51" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y51" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Z51" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC51" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AD51" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE51" t="n">
         <v>8.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG51" t="n">
         <v>8.75</v>
@@ -6145,7 +6621,7 @@
         <v>22</v>
       </c>
       <c r="AI51" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ51" t="n">
         <v>24</v>
@@ -6183,33 +6659,33 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="H52" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I52" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M52" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="N52" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="O52" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P52" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="R52" t="n">
         <v>1.72</v>
@@ -6218,10 +6694,10 @@
         <v>1.88</v>
       </c>
       <c r="T52" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U52" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V52" t="n">
         <v>10</v>
@@ -6230,16 +6706,16 @@
         <v>29</v>
       </c>
       <c r="X52" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y52" t="n">
         <v>32</v>
       </c>
       <c r="Z52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AB52" t="n">
         <v>14.5</v>
@@ -6248,25 +6724,25 @@
         <v>70</v>
       </c>
       <c r="AD52" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE52" t="n">
         <v>8</v>
       </c>
       <c r="AF52" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG52" t="n">
         <v>9.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI52" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ52" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -6590,36 +7066,92 @@
           <t>COD Meknes</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>10</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.25</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="inlineStr"/>
-      <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T56" t="n">
+        <v>21</v>
+      </c>
+      <c r="U56" t="n">
+        <v>51</v>
+      </c>
+      <c r="V56" t="n">
+        <v>29</v>
+      </c>
+      <c r="W56" t="n">
+        <v>151</v>
+      </c>
+      <c r="X56" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6652,36 +7184,96 @@
           <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K57" t="n">
+        <v>10</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>6</v>
+      </c>
+      <c r="U57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>10</v>
+      </c>
+      <c r="W57" t="n">
+        <v>7</v>
+      </c>
+      <c r="X57" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6714,36 +7306,96 @@
           <t>Moghreb Tetouan</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K58" t="n">
+        <v>8</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U58" t="n">
+        <v>6</v>
+      </c>
+      <c r="V58" t="n">
+        <v>9</v>
+      </c>
+      <c r="W58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X58" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6776,36 +7428,96 @@
           <t>Union Touarga</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K59" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U59" t="n">
+        <v>9</v>
+      </c>
+      <c r="V59" t="n">
+        <v>10</v>
+      </c>
+      <c r="W59" t="n">
+        <v>21</v>
+      </c>
+      <c r="X59" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6838,36 +7550,96 @@
           <t>Wydad</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr"/>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K60" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U60" t="n">
+        <v>17</v>
+      </c>
+      <c r="V60" t="n">
+        <v>15</v>
+      </c>
+      <c r="W60" t="n">
+        <v>41</v>
+      </c>
+      <c r="X60" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6900,36 +7672,94 @@
           <t>Hassania Agadir</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K61" t="n">
+        <v>8</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T61" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U61" t="n">
+        <v>6</v>
+      </c>
+      <c r="V61" t="n">
+        <v>9</v>
+      </c>
+      <c r="W61" t="n">
+        <v>10</v>
+      </c>
+      <c r="X61" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>81</v>
+      </c>
       <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="inlineStr"/>
+      <c r="AE61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6962,36 +7792,96 @@
           <t>Maghreb Fez</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
-      <c r="AH62" t="inlineStr"/>
-      <c r="AI62" t="inlineStr"/>
-      <c r="AJ62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T62" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U62" t="n">
+        <v>9</v>
+      </c>
+      <c r="V62" t="n">
+        <v>10</v>
+      </c>
+      <c r="W62" t="n">
+        <v>21</v>
+      </c>
+      <c r="X62" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7778,7 +8668,7 @@
         <v>3.7</v>
       </c>
       <c r="N69" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O69" t="n">
         <v>2.02</v>
@@ -7793,13 +8683,13 @@
         <v>1.87</v>
       </c>
       <c r="S69" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T69" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="U69" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="V69" t="n">
         <v>8.25</v>
@@ -7808,7 +8698,7 @@
         <v>10</v>
       </c>
       <c r="X69" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y69" t="n">
         <v>26</v>
@@ -7826,10 +8716,10 @@
         <v>80</v>
       </c>
       <c r="AD69" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE69" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF69" t="n">
         <v>37</v>
@@ -7841,7 +8731,7 @@
         <v>120</v>
       </c>
       <c r="AI69" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ69" t="n">
         <v>60</v>
@@ -7879,13 +8769,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="H70" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="I70" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="J70" t="n">
         <v>1.03</v>
@@ -7903,7 +8793,7 @@
         <v>1.47</v>
       </c>
       <c r="O70" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="P70" t="n">
         <v>1.28</v>
@@ -7912,25 +8802,25 @@
         <v>3.4</v>
       </c>
       <c r="R70" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S70" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T70" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U70" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V70" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W70" t="n">
         <v>120</v>
       </c>
       <c r="X70" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y70" t="n">
         <v>50</v>
@@ -7942,7 +8832,7 @@
         <v>9.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC70" t="n">
         <v>60</v>
@@ -7951,16 +8841,16 @@
         <v>350</v>
       </c>
       <c r="AE70" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF70" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AG70" t="n">
         <v>8.25</v>
       </c>
       <c r="AH70" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI70" t="n">
         <v>10.5</v>
@@ -8001,82 +8891,82 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H71" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I71" t="n">
         <v>3.6</v>
       </c>
       <c r="J71" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K71" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="L71" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M71" t="n">
-        <v>3.95</v>
+        <v>4.35</v>
       </c>
       <c r="N71" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O71" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P71" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="Q71" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="R71" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S71" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="T71" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="U71" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="V71" t="n">
         <v>9</v>
       </c>
       <c r="W71" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="X71" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y71" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF71" t="n">
         <v>24</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>22</v>
       </c>
       <c r="AG71" t="n">
         <v>13</v>
@@ -8085,10 +8975,10 @@
         <v>55</v>
       </c>
       <c r="AI71" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ71" t="n">
         <v>32</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="72">
@@ -8620,22 +9510,22 @@
         <v>2.9</v>
       </c>
       <c r="J76" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L76" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M76" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N76" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O76" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P76" t="n">
         <v>1.4</v>
@@ -8751,13 +9641,13 @@
         <v>1.2</v>
       </c>
       <c r="M77" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="N77" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O77" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P77" t="n">
         <v>1.33</v>
@@ -8766,22 +9656,22 @@
         <v>3.05</v>
       </c>
       <c r="R77" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S77" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="T77" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U77" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="V77" t="n">
         <v>26</v>
       </c>
       <c r="W77" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="X77" t="n">
         <v>100</v>
@@ -8805,22 +9695,22 @@
         <v>600</v>
       </c>
       <c r="AE77" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AF77" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AG77" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH77" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI77" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ77" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
@@ -8858,10 +9748,10 @@
         <v>1.55</v>
       </c>
       <c r="H78" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="I78" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J78" t="n">
         <v>1.03</v>
@@ -8879,10 +9769,10 @@
         <v>1.57</v>
       </c>
       <c r="O78" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="P78" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q78" t="n">
         <v>3.25</v>
@@ -8891,7 +9781,7 @@
         <v>1.65</v>
       </c>
       <c r="S78" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T78" t="n">
         <v>8.75</v>
@@ -8903,13 +9793,13 @@
         <v>8</v>
       </c>
       <c r="W78" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X78" t="n">
         <v>11.25</v>
       </c>
       <c r="Y78" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z78" t="n">
         <v>9</v>
@@ -8918,7 +9808,7 @@
         <v>8.25</v>
       </c>
       <c r="AB78" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC78" t="n">
         <v>55</v>
@@ -8933,7 +9823,7 @@
         <v>32</v>
       </c>
       <c r="AG78" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH78" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
@@ -668,10 +668,10 @@
         <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
@@ -1510,13 +1510,13 @@
         <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
         <v>4.33</v>
@@ -1623,25 +1623,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K10" t="n">
         <v>6.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M10" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N10" t="n">
         <v>2.63</v>
@@ -1754,22 +1754,22 @@
         <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
         <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N11" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="O11" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1876,13 +1876,13 @@
         <v>1.95</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K12" t="n">
         <v>9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>3.25</v>
@@ -1998,13 +1998,13 @@
         <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
         <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M13" t="n">
         <v>4.5</v>
@@ -2120,22 +2120,22 @@
         <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K14" t="n">
         <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
         <v>3.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="O14" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="P14" t="n">
         <v>1.4</v>
@@ -2242,13 +2242,13 @@
         <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
         <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
         <v>3.75</v>
@@ -2364,13 +2364,13 @@
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
         <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="n">
         <v>4.33</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2491,7 +2491,7 @@
         <v>1.39</v>
       </c>
       <c r="M17" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="N17" t="n">
         <v>2.12</v>
@@ -2500,67 +2500,67 @@
         <v>1.57</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S17" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="U17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V17" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
         <v>40</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD17" t="n">
         <v>800</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH17" t="n">
         <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
@@ -2595,21 +2595,21 @@
         </is>
       </c>
       <c r="G18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.45</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I18" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="N18" t="n">
         <v>1.98</v>
@@ -2630,31 +2630,31 @@
         <v>1.75</v>
       </c>
       <c r="T18" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="U18" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="V18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W18" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Y18" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z18" t="n">
         <v>9</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
         <v>90</v>
@@ -2663,19 +2663,19 @@
         <v>800</v>
       </c>
       <c r="AE18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AG18" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>32</v>
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H19" t="n">
         <v>2.67</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2727,13 +2727,13 @@
         <v>1.47</v>
       </c>
       <c r="M19" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="N19" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P19" t="n">
         <v>1.5</v>
@@ -2754,25 +2754,25 @@
         <v>12.5</v>
       </c>
       <c r="V19" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
         <v>32</v>
       </c>
       <c r="X19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
         <v>40</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA19" t="n">
         <v>5.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
         <v>90</v>
@@ -2781,10 +2781,10 @@
         <v>900</v>
       </c>
       <c r="AE19" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG19" t="n">
         <v>10.75</v>
@@ -2834,87 +2834,87 @@
         <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="N20" t="n">
-        <v>2.41</v>
+        <v>2.32</v>
       </c>
       <c r="O20" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="P20" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.36</v>
+        <v>2.15</v>
       </c>
       <c r="R20" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="T20" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="U20" t="n">
-        <v>8.800000000000001</v>
+        <v>11.25</v>
       </c>
       <c r="V20" t="n">
-        <v>8.199999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="W20" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y20" t="n">
         <v>40</v>
       </c>
       <c r="Z20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA20" t="n">
         <v>5.6</v>
       </c>
-      <c r="AA20" t="n">
-        <v>4.7</v>
-      </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC20" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AJ20" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -3327,7 +3327,7 @@
         <v>1.1</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L24" t="n">
         <v>1.45</v>
@@ -3440,72 +3440,72 @@
         <v>1.88</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I25" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M25" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="N25" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="O25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P25" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="R25" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T25" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="U25" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="V25" t="n">
         <v>8.75</v>
       </c>
       <c r="W25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="X25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AA25" t="n">
         <v>6.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD25" t="n">
         <v>900</v>
       </c>
       <c r="AE25" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF25" t="n">
         <v>19</v>
@@ -3514,13 +3514,13 @@
         <v>13.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI25" t="n">
         <v>40</v>
       </c>
       <c r="AJ25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3555,21 +3555,21 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H26" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N26" t="n">
         <v>1.75</v>
@@ -3580,16 +3580,16 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="S26" t="n">
-        <v>2.18</v>
+        <v>2.01</v>
       </c>
       <c r="T26" t="n">
         <v>9.5</v>
       </c>
       <c r="U26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V26" t="n">
         <v>10.25</v>
@@ -3598,34 +3598,34 @@
         <v>40</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z26" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD26" t="n">
         <v>250</v>
       </c>
       <c r="AE26" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AH26" t="n">
         <v>13.5</v>
@@ -3634,7 +3634,7 @@
         <v>11.75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -3669,21 +3669,21 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M27" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="N27" t="n">
         <v>1.83</v>
@@ -3692,64 +3692,64 @@
         <v>1.78</v>
       </c>
       <c r="P27" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="S27" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U27" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="V27" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="W27" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z27" t="n">
         <v>9.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD27" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
         <v>20</v>
@@ -4034,79 +4034,79 @@
         <v>1.3</v>
       </c>
       <c r="H30" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I30" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="O30" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S30" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="T30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X30" t="n">
         <v>10</v>
       </c>
-      <c r="U30" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="V30" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="W30" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="X30" t="n">
-        <v>7.8</v>
-      </c>
       <c r="Y30" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Z30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA30" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AD30" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AE30" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AF30" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AI30" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -4141,82 +4141,82 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I31" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O31" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S31" t="n">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="T31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U31" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="V31" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="W31" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="X31" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.199999999999999</v>
+        <v>11.25</v>
       </c>
       <c r="AC31" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD31" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AE31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG31" t="n">
         <v>11</v>
       </c>
-      <c r="AF31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AH31" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
@@ -4251,86 +4251,90 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M32" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+        <v>1.8</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.6</v>
+      </c>
       <c r="R32" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S32" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="T32" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="U32" t="n">
+        <v>16</v>
+      </c>
+      <c r="V32" t="n">
+        <v>11</v>
+      </c>
+      <c r="W32" t="n">
+        <v>37</v>
+      </c>
+      <c r="X32" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB32" t="n">
         <v>14</v>
       </c>
-      <c r="V32" t="n">
-        <v>9</v>
-      </c>
-      <c r="W32" t="n">
-        <v>35</v>
-      </c>
-      <c r="X32" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>11</v>
-      </c>
       <c r="AC32" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD32" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AE32" t="n">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="AF32" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="AH32" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AI32" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ32" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -4368,28 +4372,28 @@
         <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>7</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O33" t="n">
         <v>1.48</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K33" t="n">
-        <v>8</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.5</v>
       </c>
       <c r="P33" t="n">
         <v>1.57</v>
@@ -4437,7 +4441,7 @@
         <v>101</v>
       </c>
       <c r="AE33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AF33" t="n">
         <v>5.5</v>
@@ -4496,13 +4500,13 @@
         <v>3.75</v>
       </c>
       <c r="J34" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K34" t="n">
         <v>6.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M34" t="n">
         <v>2.5</v>
@@ -4609,22 +4613,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K35" t="n">
         <v>9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
@@ -4642,28 +4646,28 @@
         <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S35" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V35" t="n">
         <v>9</v>
       </c>
       <c r="W35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X35" t="n">
         <v>17</v>
       </c>
       <c r="Y35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z35" t="n">
         <v>8</v>
@@ -4678,7 +4682,7 @@
         <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE35" t="n">
         <v>10</v>
@@ -4693,7 +4697,7 @@
         <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ35" t="n">
         <v>41</v>
@@ -4731,90 +4735,94 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="H36" t="n">
         <v>3.8</v>
       </c>
       <c r="I36" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>4.65</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8.5</v>
+      </c>
       <c r="L36" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="M36" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="O36" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="P36" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="R36" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="S36" t="n">
-        <v>2.45</v>
+        <v>2.18</v>
       </c>
       <c r="T36" t="n">
-        <v>9.199999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="U36" t="n">
-        <v>9.199999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="V36" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="W36" t="n">
         <v>14</v>
       </c>
       <c r="X36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y36" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE36" t="n">
         <v>15</v>
       </c>
-      <c r="AA36" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>35</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>14</v>
-      </c>
       <c r="AF36" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
@@ -4849,27 +4857,31 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.19</v>
+        <v>2.47</v>
       </c>
       <c r="H37" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I37" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>2.42</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K37" t="n">
+        <v>9.75</v>
+      </c>
       <c r="L37" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M37" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="N37" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="O37" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="P37" t="n">
         <v>1.26</v>
@@ -4878,61 +4890,61 @@
         <v>3.5</v>
       </c>
       <c r="R37" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="S37" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="T37" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="U37" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="V37" t="n">
-        <v>7.8</v>
+        <v>9.75</v>
       </c>
       <c r="W37" t="n">
+        <v>28</v>
+      </c>
+      <c r="X37" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>19</v>
-      </c>
-      <c r="X37" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -5207,94 +5219,94 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I40" t="n">
-        <v>4.65</v>
+        <v>3.8</v>
       </c>
       <c r="J40" t="n">
         <v>1.07</v>
       </c>
       <c r="K40" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M40" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P40" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="R40" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S40" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T40" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="U40" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="V40" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X40" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y40" t="n">
         <v>30</v>
       </c>
       <c r="Z40" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AA40" t="n">
         <v>6.8</v>
       </c>
       <c r="AB40" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC40" t="n">
         <v>90</v>
       </c>
       <c r="AD40" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE40" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AF40" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH40" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AI40" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AJ40" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -5329,91 +5341,91 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="H41" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I41" t="n">
-        <v>2.87</v>
+        <v>3.15</v>
       </c>
       <c r="J41" t="n">
         <v>1.1</v>
       </c>
       <c r="K41" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M41" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N41" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O41" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P41" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="R41" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="T41" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="U41" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="V41" t="n">
         <v>9.5</v>
       </c>
       <c r="W41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X41" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y41" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z41" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA41" t="n">
         <v>5.9</v>
       </c>
-      <c r="AA41" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AB41" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD41" t="n">
         <v>900</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AF41" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AG41" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI41" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ41" t="n">
         <v>45</v>
@@ -5505,7 +5517,7 @@
         <v>29</v>
       </c>
       <c r="Y42" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="n">
         <v>5.9</v>
@@ -5573,70 +5585,70 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="J43" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K43" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="L43" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M43" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="N43" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O43" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P43" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="R43" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S43" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T43" t="n">
-        <v>10.25</v>
+        <v>14</v>
       </c>
       <c r="U43" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="V43" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="W43" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="X43" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="Y43" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Z43" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AA43" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="AB43" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="n">
         <v>100</v>
@@ -5645,19 +5657,19 @@
         <v>900</v>
       </c>
       <c r="AE43" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="AG43" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH43" t="n">
-        <v>14</v>
+        <v>10.75</v>
       </c>
       <c r="AI43" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ43" t="n">
         <v>32</v>
@@ -5695,94 +5707,94 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.6</v>
+        <v>4.05</v>
       </c>
       <c r="H44" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J44" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K44" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="L44" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M44" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N44" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="O44" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="P44" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="S44" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="T44" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U44" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="V44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W44" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X44" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AB44" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD44" t="n">
         <v>900</v>
       </c>
       <c r="AE44" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="AF44" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AG44" t="n">
         <v>9</v>
       </c>
       <c r="AH44" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
@@ -5817,55 +5829,55 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I45" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J45" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K45" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="L45" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M45" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="N45" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O45" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P45" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="R45" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S45" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T45" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U45" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V45" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W45" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X45" t="n">
         <v>18</v>
@@ -5874,7 +5886,7 @@
         <v>32</v>
       </c>
       <c r="Z45" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA45" t="n">
         <v>6.3</v>
@@ -5889,10 +5901,10 @@
         <v>700</v>
       </c>
       <c r="AE45" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG45" t="n">
         <v>11.75</v>
@@ -5939,19 +5951,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H46" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="J46" t="n">
         <v>1.08</v>
       </c>
       <c r="K46" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L46" t="n">
         <v>1.39</v>
@@ -5978,49 +5990,49 @@
         <v>1.78</v>
       </c>
       <c r="T46" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="U46" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V46" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W46" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="X46" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y46" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z46" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA46" t="n">
         <v>6.3</v>
       </c>
-      <c r="AA46" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AB46" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC46" t="n">
         <v>90</v>
       </c>
       <c r="AD46" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE46" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AF46" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AG46" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH46" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI46" t="n">
         <v>17.5</v>
@@ -6183,94 +6195,94 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="H48" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K48" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T48" t="n">
         <v>5.7</v>
       </c>
-      <c r="J48" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K48" t="n">
-        <v>7</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M48" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T48" t="n">
-        <v>5.9</v>
-      </c>
       <c r="U48" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="V48" t="n">
         <v>8.25</v>
       </c>
       <c r="W48" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="X48" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y48" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z48" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA48" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AB48" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD48" t="n">
         <v>900</v>
       </c>
       <c r="AE48" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AG48" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AH48" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AI48" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AJ48" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
@@ -6427,13 +6439,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="H50" t="n">
         <v>3.45</v>
       </c>
       <c r="I50" t="n">
-        <v>3.7</v>
+        <v>4.15</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -6444,69 +6456,73 @@
         <v>3.5</v>
       </c>
       <c r="N50" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="O50" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+        <v>1.83</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R50" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S50" t="n">
         <v>2</v>
       </c>
       <c r="T50" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U50" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="V50" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="W50" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="X50" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB50" t="n">
         <v>12</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>11</v>
       </c>
       <c r="AC50" t="n">
         <v>50</v>
       </c>
       <c r="AD50" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AE50" t="n">
-        <v>9.199999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="AF50" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ50" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -6727,7 +6743,7 @@
         <v>600</v>
       </c>
       <c r="AE52" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AF52" t="n">
         <v>12</v>
@@ -7078,28 +7094,28 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="M56" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N56" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O56" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P56" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R56" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="S56" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T56" t="n">
         <v>21</v>
@@ -7194,22 +7210,22 @@
         <v>12</v>
       </c>
       <c r="J57" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K57" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L57" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M57" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N57" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="O57" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="P57" t="n">
         <v>1.36</v>
@@ -7307,19 +7323,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="H58" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J58" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L58" t="n">
         <v>1.33</v>
@@ -7328,10 +7344,10 @@
         <v>3.25</v>
       </c>
       <c r="N58" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O58" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="P58" t="n">
         <v>1.44</v>
@@ -7340,34 +7356,34 @@
         <v>2.63</v>
       </c>
       <c r="R58" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S58" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T58" t="n">
         <v>5.5</v>
       </c>
       <c r="U58" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V58" t="n">
         <v>9</v>
       </c>
       <c r="W58" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X58" t="n">
         <v>15</v>
       </c>
       <c r="Y58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z58" t="n">
         <v>8</v>
       </c>
       <c r="AA58" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB58" t="n">
         <v>23</v>
@@ -7379,13 +7395,13 @@
         <v>101</v>
       </c>
       <c r="AE58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF58" t="n">
         <v>41</v>
       </c>
       <c r="AG58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH58" t="n">
         <v>101</v>
@@ -7394,7 +7410,7 @@
         <v>67</v>
       </c>
       <c r="AJ58" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
@@ -7453,7 +7469,7 @@
         <v>2.7</v>
       </c>
       <c r="O59" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P59" t="n">
         <v>1.62</v>
@@ -7575,7 +7591,7 @@
         <v>2.5</v>
       </c>
       <c r="O60" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P60" t="n">
         <v>1.57</v>
@@ -7673,13 +7689,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="H61" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="J61" t="n">
         <v>1.08</v>
@@ -7697,7 +7713,7 @@
         <v>2.2</v>
       </c>
       <c r="O61" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P61" t="n">
         <v>1.5</v>
@@ -7706,22 +7722,22 @@
         <v>2.5</v>
       </c>
       <c r="R61" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S61" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="T61" t="n">
         <v>5.5</v>
       </c>
       <c r="U61" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V61" t="n">
         <v>9</v>
       </c>
       <c r="W61" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X61" t="n">
         <v>15</v>
@@ -7733,29 +7749,31 @@
         <v>8</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC61" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD61" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>101</v>
+      </c>
       <c r="AE61" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF61" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG61" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH61" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AI61" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ61" t="n">
         <v>51</v>
@@ -7817,7 +7835,7 @@
         <v>2.7</v>
       </c>
       <c r="O62" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P62" t="n">
         <v>1.62</v>
@@ -8037,13 +8055,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H64" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I64" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J64" t="n">
         <v>1.03</v>
@@ -8058,22 +8076,22 @@
         <v>4.5</v>
       </c>
       <c r="N64" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O64" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P64" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q64" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R64" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S64" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T64" t="n">
         <v>13</v>
@@ -8088,7 +8106,7 @@
         <v>29</v>
       </c>
       <c r="X64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y64" t="n">
         <v>23</v>
@@ -8097,19 +8115,19 @@
         <v>15</v>
       </c>
       <c r="AA64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD64" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF64" t="n">
         <v>15</v>
@@ -8121,10 +8139,10 @@
         <v>23</v>
       </c>
       <c r="AI64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -8168,10 +8186,10 @@
         <v>2.9</v>
       </c>
       <c r="J65" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K65" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L65" t="n">
         <v>1.25</v>
@@ -8180,7 +8198,7 @@
         <v>3.75</v>
       </c>
       <c r="N65" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O65" t="n">
         <v>1.95</v>
@@ -8290,10 +8308,10 @@
         <v>1.6</v>
       </c>
       <c r="J66" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K66" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L66" t="n">
         <v>1.2</v>
@@ -8525,13 +8543,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="H68" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I68" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J68" t="n">
         <v>1.05</v>
@@ -8543,7 +8561,7 @@
         <v>1.25</v>
       </c>
       <c r="M68" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="N68" t="n">
         <v>1.75</v>
@@ -8552,52 +8570,52 @@
         <v>1.98</v>
       </c>
       <c r="P68" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="R68" t="n">
         <v>1.7</v>
       </c>
       <c r="S68" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T68" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="U68" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V68" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="W68" t="n">
         <v>70</v>
       </c>
       <c r="X68" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y68" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z68" t="n">
         <v>7.9</v>
       </c>
       <c r="AA68" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB68" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC68" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD68" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE68" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AF68" t="n">
         <v>8.75</v>
@@ -8606,10 +8624,10 @@
         <v>8</v>
       </c>
       <c r="AH68" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI68" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ68" t="n">
         <v>23</v>
@@ -8650,10 +8668,10 @@
         <v>1.47</v>
       </c>
       <c r="H69" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I69" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J69" t="n">
         <v>1.04</v>
@@ -8662,46 +8680,46 @@
         <v>8.25</v>
       </c>
       <c r="L69" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M69" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="N69" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O69" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P69" t="n">
         <v>1.35</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="R69" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="S69" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T69" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="U69" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="V69" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W69" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="X69" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z69" t="n">
         <v>8.25</v>
@@ -8710,10 +8728,10 @@
         <v>8.25</v>
       </c>
       <c r="AB69" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC69" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD69" t="n">
         <v>600</v>
@@ -8725,7 +8743,7 @@
         <v>37</v>
       </c>
       <c r="AG69" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH69" t="n">
         <v>120</v>
@@ -8734,7 +8752,7 @@
         <v>60</v>
       </c>
       <c r="AJ69" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70">
@@ -8769,94 +8787,94 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="H70" t="n">
         <v>4.5</v>
       </c>
       <c r="I70" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J70" t="n">
         <v>1.03</v>
       </c>
       <c r="K70" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="L70" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="M70" t="n">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="N70" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="O70" t="n">
-        <v>2.45</v>
+        <v>2.67</v>
       </c>
       <c r="P70" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q70" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="R70" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S70" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T70" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U70" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V70" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W70" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="X70" t="n">
         <v>55</v>
       </c>
       <c r="Y70" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC70" t="n">
         <v>50</v>
       </c>
-      <c r="Z70" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>60</v>
-      </c>
       <c r="AD70" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AE70" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AF70" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AG70" t="n">
         <v>8.25</v>
       </c>
       <c r="AH70" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AI70" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ70" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -9156,10 +9174,10 @@
         <v>4.33</v>
       </c>
       <c r="N73" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O73" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P73" t="n">
         <v>1.33</v>
@@ -9168,10 +9186,10 @@
         <v>3.25</v>
       </c>
       <c r="R73" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S73" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T73" t="n">
         <v>8</v>
@@ -9183,7 +9201,7 @@
         <v>8.5</v>
       </c>
       <c r="W73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X73" t="n">
         <v>12</v>
@@ -9210,7 +9228,7 @@
         <v>15</v>
       </c>
       <c r="AF73" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG73" t="n">
         <v>15</v>
@@ -10001,7 +10019,7 @@
         <v>1.06</v>
       </c>
       <c r="K80" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="L80" t="n">
         <v>1.29</v>
@@ -10028,25 +10046,25 @@
         <v>2.02</v>
       </c>
       <c r="T80" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="U80" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V80" t="n">
         <v>8.5</v>
       </c>
       <c r="W80" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="X80" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y80" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z80" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA80" t="n">
         <v>6.5</v>
@@ -10061,22 +10079,22 @@
         <v>450</v>
       </c>
       <c r="AE80" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF80" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG80" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH80" t="n">
         <v>45</v>
       </c>
       <c r="AI80" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ80" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81">

--- a/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
         <v>1.08</v>
@@ -924,10 +924,10 @@
         <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
         <v>8.5</v>
@@ -948,7 +948,7 @@
         <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA4" t="n">
         <v>6</v>
@@ -960,10 +960,10 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF4" t="n">
         <v>10</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J5" t="n">
         <v>1.06</v>
@@ -1034,10 +1034,10 @@
         <v>3.5</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P5" t="n">
         <v>1.4</v>
@@ -1046,10 +1046,10 @@
         <v>2.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T5" t="n">
         <v>13</v>
@@ -1082,7 +1082,7 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE5" t="n">
         <v>7</v>
@@ -1141,19 +1141,19 @@
         <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N6" t="n">
         <v>2.5</v>
@@ -1192,7 +1192,7 @@
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA6" t="n">
         <v>5.5</v>
@@ -1213,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>34</v>
@@ -1266,10 +1266,10 @@
         <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>1.33</v>
@@ -1278,10 +1278,10 @@
         <v>3.25</v>
       </c>
       <c r="N7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
@@ -1400,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>1.33</v>
@@ -1638,10 +1638,10 @@
         <v>6.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N10" t="n">
         <v>2.63</v>
@@ -1757,7 +1757,7 @@
         <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -1766,10 +1766,10 @@
         <v>3.4</v>
       </c>
       <c r="N11" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="O11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1778,10 +1778,10 @@
         <v>2.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S11" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T11" t="n">
         <v>12</v>
@@ -1802,7 +1802,7 @@
         <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA11" t="n">
         <v>7</v>
@@ -1817,7 +1817,7 @@
         <v>301</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
@@ -1832,7 +1832,7 @@
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -1876,10 +1876,10 @@
         <v>1.95</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
         <v>1.33</v>
@@ -2483,7 +2483,7 @@
         <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2491,7 +2491,7 @@
         <v>1.39</v>
       </c>
       <c r="M17" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="N17" t="n">
         <v>2.12</v>
@@ -2500,46 +2500,46 @@
         <v>1.57</v>
       </c>
       <c r="P17" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
         <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T17" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="U17" t="n">
         <v>13</v>
       </c>
       <c r="V17" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W17" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X17" t="n">
         <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z17" t="n">
         <v>7.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB17" t="n">
         <v>15.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="n">
         <v>800</v>
@@ -2595,27 +2595,27 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.75</v>
+        <v>4.45</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="I18" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="N18" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O18" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P18" t="n">
         <v>1.39</v>
@@ -2624,61 +2624,61 @@
         <v>2.55</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="U18" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="V18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W18" t="n">
+        <v>75</v>
+      </c>
+      <c r="X18" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y18" t="n">
         <v>55</v>
       </c>
-      <c r="X18" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>50</v>
-      </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC18" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD18" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE18" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="AG18" t="n">
         <v>8.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H19" t="n">
         <v>2.65</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.67</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -2742,31 +2742,31 @@
         <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S19" t="n">
         <v>1.72</v>
       </c>
       <c r="T19" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U19" t="n">
         <v>12.5</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W19" t="n">
         <v>32</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y19" t="n">
         <v>40</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA19" t="n">
         <v>5.3</v>
@@ -2781,19 +2781,19 @@
         <v>900</v>
       </c>
       <c r="AE19" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF19" t="n">
         <v>14.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
         <v>40</v>
       </c>
       <c r="AI19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
         <v>45</v>
@@ -3555,41 +3555,45 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N26" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="O26" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+        <v>1.78</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R26" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S26" t="n">
         <v>2.01</v>
       </c>
       <c r="T26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V26" t="n">
         <v>10.25</v>
@@ -3598,43 +3602,43 @@
         <v>40</v>
       </c>
       <c r="X26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AB26" t="n">
         <v>11.25</v>
       </c>
       <c r="AC26" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD26" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE26" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AG26" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
         <v>13.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="27">
@@ -3683,7 +3687,7 @@
         <v>1.27</v>
       </c>
       <c r="M27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N27" t="n">
         <v>1.83</v>
@@ -3698,10 +3702,10 @@
         <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T27" t="n">
         <v>9</v>
@@ -4031,82 +4035,82 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="H30" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I30" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="O30" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S30" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="T30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U30" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="V30" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W30" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="X30" t="n">
         <v>10</v>
       </c>
       <c r="Y30" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA30" t="n">
         <v>13</v>
       </c>
       <c r="AB30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD30" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE30" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AF30" t="n">
         <v>60</v>
       </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH30" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI30" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -4251,90 +4255,90 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="N32" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="O32" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="P32" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="R32" t="n">
         <v>1.7</v>
       </c>
       <c r="S32" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T32" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="U32" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V32" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="W32" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="X32" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y32" t="n">
         <v>32</v>
       </c>
       <c r="Z32" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB32" t="n">
         <v>14</v>
       </c>
       <c r="AC32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD32" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE32" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF32" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH32" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AJ32" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -4369,19 +4373,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.53</v>
@@ -4417,7 +4421,7 @@
         <v>23</v>
       </c>
       <c r="W33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="X33" t="n">
         <v>67</v>
@@ -4450,7 +4454,7 @@
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI33" t="n">
         <v>17</v>
@@ -4500,10 +4504,10 @@
         <v>3.75</v>
       </c>
       <c r="J34" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L34" t="n">
         <v>1.5</v>
@@ -4735,94 +4739,94 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>4.65</v>
+        <v>3.95</v>
       </c>
       <c r="J36" t="n">
         <v>1.04</v>
       </c>
       <c r="K36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T36" t="n">
         <v>8.5</v>
       </c>
-      <c r="L36" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O36" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T36" t="n">
-        <v>8.75</v>
-      </c>
       <c r="U36" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V36" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W36" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB36" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD36" t="n">
         <v>300</v>
       </c>
       <c r="AE36" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AG36" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AI36" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ36" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -4857,13 +4861,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="H37" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I37" t="n">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="J37" t="n">
         <v>1.03</v>
@@ -4884,10 +4888,10 @@
         <v>2.55</v>
       </c>
       <c r="P37" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R37" t="n">
         <v>1.42</v>
@@ -4896,22 +4900,22 @@
         <v>2.65</v>
       </c>
       <c r="T37" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U37" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V37" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="W37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="n">
         <v>9.75</v>
@@ -4926,25 +4930,25 @@
         <v>32</v>
       </c>
       <c r="AD37" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AE37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG37" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI37" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ37" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="38">
@@ -5463,19 +5467,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="H42" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>2.45</v>
+        <v>2.62</v>
       </c>
       <c r="J42" t="n">
         <v>1.1</v>
       </c>
       <c r="K42" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L42" t="n">
         <v>1.47</v>
@@ -5484,16 +5488,16 @@
         <v>2.5</v>
       </c>
       <c r="N42" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="O42" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P42" t="n">
         <v>1.55</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R42" t="n">
         <v>2.05</v>
@@ -5502,28 +5506,28 @@
         <v>1.7</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="U42" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="V42" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W42" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X42" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y42" t="n">
         <v>45</v>
       </c>
       <c r="Z42" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AA42" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB42" t="n">
         <v>18</v>
@@ -5535,19 +5539,19 @@
         <v>101</v>
       </c>
       <c r="AE42" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AF42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG42" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG42" t="n">
-        <v>10</v>
-      </c>
       <c r="AH42" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI42" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ42" t="n">
         <v>45</v>
@@ -5707,46 +5711,46 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J44" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K44" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="L44" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="M44" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="N44" t="n">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="O44" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="P44" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="R44" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="S44" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="T44" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U44" t="n">
         <v>20</v>
@@ -5764,37 +5768,37 @@
         <v>60</v>
       </c>
       <c r="Z44" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB44" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD44" t="n">
         <v>900</v>
       </c>
       <c r="AE44" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="AF44" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AG44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ44" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
@@ -5829,13 +5833,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H45" t="n">
         <v>3.3</v>
       </c>
       <c r="I45" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="J45" t="n">
         <v>1.07</v>
@@ -5859,7 +5863,7 @@
         <v>1.42</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R45" t="n">
         <v>1.85</v>
@@ -5868,19 +5872,19 @@
         <v>1.85</v>
       </c>
       <c r="T45" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="U45" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="V45" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W45" t="n">
+        <v>21</v>
+      </c>
+      <c r="X45" t="n">
         <v>19</v>
-      </c>
-      <c r="X45" t="n">
-        <v>18</v>
       </c>
       <c r="Y45" t="n">
         <v>32</v>
@@ -5901,19 +5905,19 @@
         <v>700</v>
       </c>
       <c r="AE45" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG45" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AH45" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI45" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ45" t="n">
         <v>40</v>
@@ -6317,31 +6321,31 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K49" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="L49" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M49" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="N49" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O49" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P49" t="n">
         <v>1.42</v>
@@ -6350,34 +6354,34 @@
         <v>2.65</v>
       </c>
       <c r="R49" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S49" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T49" t="n">
         <v>7.1</v>
       </c>
       <c r="U49" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="V49" t="n">
         <v>9.25</v>
       </c>
       <c r="W49" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X49" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y49" t="n">
         <v>32</v>
       </c>
       <c r="Z49" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB49" t="n">
         <v>15.5</v>
@@ -6389,16 +6393,16 @@
         <v>700</v>
       </c>
       <c r="AE49" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF49" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG49" t="n">
         <v>11</v>
       </c>
       <c r="AH49" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI49" t="n">
         <v>27</v>
@@ -6450,46 +6454,46 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M50" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="N50" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O50" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P50" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R50" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T50" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="U50" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="V50" t="n">
         <v>6.9</v>
       </c>
       <c r="W50" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X50" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y50" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z50" t="n">
         <v>10.25</v>
@@ -6507,10 +6511,10 @@
         <v>300</v>
       </c>
       <c r="AE50" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF50" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG50" t="n">
         <v>11.5</v>
@@ -6519,7 +6523,7 @@
         <v>50</v>
       </c>
       <c r="AI50" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ50" t="n">
         <v>32</v>
@@ -6557,10 +6561,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
         <v>2.18</v>
@@ -6589,13 +6593,13 @@
         <v>1.62</v>
       </c>
       <c r="S51" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T51" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="U51" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V51" t="n">
         <v>10.75</v>
@@ -6604,31 +6608,31 @@
         <v>40</v>
       </c>
       <c r="X51" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y51" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z51" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA51" t="n">
         <v>6.4</v>
       </c>
       <c r="AB51" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD51" t="n">
         <v>350</v>
       </c>
       <c r="AE51" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF51" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG51" t="n">
         <v>8.75</v>
@@ -6637,10 +6641,10 @@
         <v>22</v>
       </c>
       <c r="AI51" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ51" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
@@ -6675,10 +6679,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I52" t="n">
         <v>2.47</v>
@@ -6704,22 +6708,22 @@
         <v>2.47</v>
       </c>
       <c r="R52" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S52" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T52" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U52" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V52" t="n">
         <v>10</v>
       </c>
       <c r="W52" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X52" t="n">
         <v>22</v>
@@ -6731,7 +6735,7 @@
         <v>9.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB52" t="n">
         <v>14.5</v>
@@ -6743,7 +6747,7 @@
         <v>600</v>
       </c>
       <c r="AE52" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF52" t="n">
         <v>12</v>
@@ -7083,7 +7087,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H56" t="n">
         <v>4.75</v>
@@ -7118,16 +7122,16 @@
         <v>1.5</v>
       </c>
       <c r="T56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="V56" t="n">
         <v>29</v>
       </c>
       <c r="W56" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="X56" t="n">
         <v>81</v>
@@ -7166,7 +7170,7 @@
         <v>13</v>
       </c>
       <c r="AJ56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -7210,10 +7214,10 @@
         <v>12</v>
       </c>
       <c r="J57" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K57" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L57" t="n">
         <v>1.22</v>
@@ -7222,58 +7226,58 @@
         <v>4</v>
       </c>
       <c r="N57" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O57" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P57" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R57" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S57" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T57" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U57" t="n">
         <v>5.5</v>
       </c>
       <c r="V57" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W57" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y57" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA57" t="n">
         <v>10</v>
       </c>
       <c r="AB57" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC57" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD57" t="n">
         <v>101</v>
       </c>
       <c r="AE57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF57" t="n">
         <v>51</v>
@@ -7285,7 +7289,7 @@
         <v>151</v>
       </c>
       <c r="AI57" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ57" t="n">
         <v>81</v>
@@ -7326,16 +7330,16 @@
         <v>1.36</v>
       </c>
       <c r="H58" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I58" t="n">
         <v>8</v>
       </c>
       <c r="J58" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K58" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L58" t="n">
         <v>1.33</v>
@@ -7344,10 +7348,10 @@
         <v>3.25</v>
       </c>
       <c r="N58" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O58" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P58" t="n">
         <v>1.44</v>
@@ -7356,10 +7360,10 @@
         <v>2.63</v>
       </c>
       <c r="R58" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S58" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T58" t="n">
         <v>5.5</v>
@@ -7371,7 +7375,7 @@
         <v>9</v>
       </c>
       <c r="W58" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X58" t="n">
         <v>15</v>
@@ -7383,13 +7387,13 @@
         <v>8</v>
       </c>
       <c r="AA58" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC58" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD58" t="n">
         <v>101</v>
@@ -7401,7 +7405,7 @@
         <v>41</v>
       </c>
       <c r="AG58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH58" t="n">
         <v>101</v>
@@ -7469,7 +7473,7 @@
         <v>2.7</v>
       </c>
       <c r="O59" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P59" t="n">
         <v>1.62</v>
@@ -7567,13 +7571,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H60" t="n">
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J60" t="n">
         <v>1.11</v>
@@ -7588,10 +7592,10 @@
         <v>2.5</v>
       </c>
       <c r="N60" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O60" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P60" t="n">
         <v>1.57</v>
@@ -7600,16 +7604,16 @@
         <v>2.25</v>
       </c>
       <c r="R60" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S60" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T60" t="n">
         <v>8.5</v>
       </c>
       <c r="U60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V60" t="n">
         <v>15</v>
@@ -7627,10 +7631,10 @@
         <v>6.5</v>
       </c>
       <c r="AA60" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC60" t="n">
         <v>81</v>
@@ -7642,13 +7646,13 @@
         <v>5.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG60" t="n">
         <v>9.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI60" t="n">
         <v>21</v>
@@ -7713,7 +7717,7 @@
         <v>2.2</v>
       </c>
       <c r="O61" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P61" t="n">
         <v>1.5</v>
@@ -7835,7 +7839,7 @@
         <v>2.7</v>
       </c>
       <c r="O62" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P62" t="n">
         <v>1.62</v>
@@ -7898,7 +7902,7 @@
         <v>34</v>
       </c>
       <c r="AJ62" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
@@ -7933,13 +7937,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H63" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I63" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J63" t="n">
         <v>1.05</v>
@@ -7948,22 +7952,22 @@
         <v>11</v>
       </c>
       <c r="L63" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M63" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O63" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="P63" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R63" t="n">
         <v>1.67</v>
@@ -7972,10 +7976,10 @@
         <v>2.1</v>
       </c>
       <c r="T63" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V63" t="n">
         <v>10</v>
@@ -8002,10 +8006,10 @@
         <v>41</v>
       </c>
       <c r="AD63" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE63" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF63" t="n">
         <v>13</v>
@@ -8014,13 +8018,13 @@
         <v>10</v>
       </c>
       <c r="AH63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
@@ -8055,19 +8059,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I64" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J64" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K64" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L64" t="n">
         <v>1.17</v>
@@ -8109,13 +8113,13 @@
         <v>21</v>
       </c>
       <c r="Y64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z64" t="n">
         <v>15</v>
       </c>
       <c r="AA64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB64" t="n">
         <v>11</v>
@@ -8127,10 +8131,10 @@
         <v>101</v>
       </c>
       <c r="AE64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG64" t="n">
         <v>10</v>
@@ -8139,10 +8143,10 @@
         <v>23</v>
       </c>
       <c r="AI64" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
@@ -8198,7 +8202,7 @@
         <v>3.75</v>
       </c>
       <c r="N65" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O65" t="n">
         <v>1.95</v>
@@ -8299,19 +8303,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="H66" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I66" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J66" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K66" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L66" t="n">
         <v>1.2</v>
@@ -8332,34 +8336,34 @@
         <v>3.25</v>
       </c>
       <c r="R66" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U66" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W66" t="n">
         <v>51</v>
       </c>
       <c r="X66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z66" t="n">
         <v>13</v>
       </c>
       <c r="AA66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB66" t="n">
         <v>15</v>
@@ -8368,19 +8372,19 @@
         <v>41</v>
       </c>
       <c r="AD66" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AE66" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG66" t="n">
         <v>8.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI66" t="n">
         <v>13</v>
@@ -8543,7 +8547,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="H68" t="n">
         <v>3.55</v>
@@ -8555,7 +8559,7 @@
         <v>1.05</v>
       </c>
       <c r="K68" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="L68" t="n">
         <v>1.25</v>
@@ -8570,10 +8574,10 @@
         <v>1.98</v>
       </c>
       <c r="P68" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="R68" t="n">
         <v>1.7</v>
@@ -8582,7 +8586,7 @@
         <v>2.02</v>
       </c>
       <c r="T68" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U68" t="n">
         <v>25</v>
@@ -8600,7 +8604,7 @@
         <v>40</v>
       </c>
       <c r="Z68" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AA68" t="n">
         <v>7.1</v>
@@ -8615,16 +8619,16 @@
         <v>450</v>
       </c>
       <c r="AE68" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AF68" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG68" t="n">
         <v>8</v>
       </c>
       <c r="AH68" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI68" t="n">
         <v>13</v>
@@ -9641,22 +9645,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="H77" t="n">
-        <v>4.45</v>
+        <v>4.15</v>
       </c>
       <c r="I77" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="J77" t="n">
         <v>1.04</v>
       </c>
       <c r="K77" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L77" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
@@ -9668,67 +9672,67 @@
         <v>2.15</v>
       </c>
       <c r="P77" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q77" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R77" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S77" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="T77" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U77" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="V77" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W77" t="n">
         <v>200</v>
       </c>
       <c r="X77" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y77" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Z77" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA77" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AB77" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AD77" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AE77" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF77" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AG77" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AH77" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AI77" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ77" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
@@ -9766,49 +9770,49 @@
         <v>1.55</v>
       </c>
       <c r="H78" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="I78" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
         <v>1.03</v>
       </c>
       <c r="K78" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="L78" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="M78" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="N78" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O78" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="P78" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Q78" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="R78" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S78" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="T78" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U78" t="n">
         <v>8.75</v>
       </c>
-      <c r="U78" t="n">
-        <v>8.5</v>
-      </c>
       <c r="V78" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W78" t="n">
         <v>12</v>
@@ -9817,25 +9821,25 @@
         <v>11.25</v>
       </c>
       <c r="Y78" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA78" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB78" t="n">
         <v>14.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD78" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE78" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF78" t="n">
         <v>32</v>
@@ -9847,10 +9851,10 @@
         <v>90</v>
       </c>
       <c r="AI78" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ78" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79">
@@ -10132,10 +10136,10 @@
         <v>1.93</v>
       </c>
       <c r="H81" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I81" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J81" t="n">
         <v>1.06</v>
@@ -10156,16 +10160,16 @@
         <v>1.75</v>
       </c>
       <c r="P81" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R81" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S81" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T81" t="n">
         <v>6.9</v>
@@ -10180,7 +10184,7 @@
         <v>16</v>
       </c>
       <c r="X81" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y81" t="n">
         <v>29</v>
@@ -10192,10 +10196,10 @@
         <v>6.7</v>
       </c>
       <c r="AB81" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC81" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD81" t="n">
         <v>700</v>
@@ -10213,7 +10217,7 @@
         <v>50</v>
       </c>
       <c r="AI81" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ81" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
@@ -650,10 +650,10 @@
         <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.05</v>
@@ -668,10 +668,10 @@
         <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
@@ -695,7 +695,7 @@
         <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -719,7 +719,7 @@
         <v>501</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -1034,10 +1034,10 @@
         <v>3.5</v>
       </c>
       <c r="N5" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="O5" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P5" t="n">
         <v>1.4</v>
@@ -1266,10 +1266,10 @@
         <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
         <v>1.33</v>
@@ -1278,10 +1278,10 @@
         <v>3.25</v>
       </c>
       <c r="N7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
@@ -1385,7 +1385,7 @@
         <v>5.25</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.04</v>
@@ -1400,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P8" t="n">
         <v>1.33</v>
@@ -1412,16 +1412,16 @@
         <v>3.25</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V8" t="n">
         <v>9</v>
@@ -1436,7 +1436,7 @@
         <v>29</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
         <v>10</v>
@@ -1445,10 +1445,10 @@
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1460,7 +1460,7 @@
         <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI8" t="n">
         <v>51</v>
@@ -1516,16 +1516,16 @@
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1632,22 +1632,22 @@
         <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
         <v>1.57</v>
@@ -1695,16 +1695,16 @@
         <v>501</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF10" t="n">
         <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
         <v>34</v>
@@ -1757,7 +1757,7 @@
         <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H13" t="n">
         <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J13" t="n">
         <v>1.03</v>
@@ -2010,10 +2010,10 @@
         <v>4.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P13" t="n">
         <v>1.3</v>
@@ -2031,16 +2031,16 @@
         <v>9</v>
       </c>
       <c r="U13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V13" t="n">
         <v>8.5</v>
       </c>
       <c r="W13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>21</v>
@@ -2061,7 +2061,7 @@
         <v>151</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
         <v>26</v>
@@ -2480,10 +2480,10 @@
         <v>2.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2506,61 +2506,61 @@
         <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S17" t="n">
         <v>1.78</v>
       </c>
       <c r="T17" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="U17" t="n">
         <v>13</v>
       </c>
       <c r="V17" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y17" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>80</v>
       </c>
       <c r="AD17" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG17" t="n">
         <v>9.75</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
         <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -3071,19 +3071,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
         <v>5.75</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -3110,28 +3110,28 @@
         <v>1.62</v>
       </c>
       <c r="T22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U22" t="n">
         <v>6.5</v>
       </c>
       <c r="V22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W22" t="n">
         <v>10</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
         <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB22" t="n">
         <v>23</v>
@@ -3143,7 +3143,7 @@
         <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
         <v>29</v>
@@ -3673,27 +3673,27 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
         <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M27" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="N27" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O27" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="P27" t="n">
         <v>1.37</v>
@@ -3702,61 +3702,61 @@
         <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="S27" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T27" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U27" t="n">
+        <v>17</v>
+      </c>
+      <c r="V27" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W27" t="n">
+        <v>45</v>
+      </c>
+      <c r="X27" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z27" t="n">
         <v>9</v>
-      </c>
-      <c r="U27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="V27" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W27" t="n">
-        <v>37</v>
-      </c>
-      <c r="X27" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA27" t="n">
         <v>5.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD27" t="n">
         <v>300</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AI27" t="n">
         <v>13</v>
       </c>
       <c r="AJ27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -3791,19 +3791,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J28" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L28" t="n">
         <v>1.25</v>
@@ -3824,22 +3824,22 @@
         <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S28" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T28" t="n">
         <v>6</v>
       </c>
       <c r="U28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V28" t="n">
         <v>9</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>12</v>
@@ -3851,7 +3851,7 @@
         <v>11</v>
       </c>
       <c r="AA28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB28" t="n">
         <v>26</v>
@@ -3869,13 +3869,13 @@
         <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH28" t="n">
         <v>126</v>
       </c>
       <c r="AI28" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="n">
         <v>67</v>
@@ -4041,49 +4041,49 @@
         <v>5.4</v>
       </c>
       <c r="I30" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="O30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S30" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="T30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U30" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="V30" t="n">
         <v>9.25</v>
       </c>
       <c r="W30" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X30" t="n">
         <v>10</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z30" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB30" t="n">
         <v>16.5</v>
@@ -4092,7 +4092,7 @@
         <v>45</v>
       </c>
       <c r="AD30" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE30" t="n">
         <v>32</v>
@@ -4101,7 +4101,7 @@
         <v>60</v>
       </c>
       <c r="AG30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
         <v>150</v>
@@ -4110,7 +4110,7 @@
         <v>60</v>
       </c>
       <c r="AJ30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -4148,7 +4148,7 @@
         <v>2.05</v>
       </c>
       <c r="H31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
         <v>3.1</v>
@@ -4172,10 +4172,10 @@
         <v>2.4</v>
       </c>
       <c r="T31" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="U31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V31" t="n">
         <v>8.75</v>
@@ -4184,7 +4184,7 @@
         <v>21</v>
       </c>
       <c r="X31" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="n">
         <v>18.5</v>
@@ -4202,13 +4202,13 @@
         <v>35</v>
       </c>
       <c r="AD31" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AE31" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG31" t="n">
         <v>11</v>
@@ -4217,10 +4217,10 @@
         <v>45</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -4255,13 +4255,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.77</v>
+        <v>2.92</v>
       </c>
       <c r="H32" t="n">
         <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -4272,10 +4272,10 @@
         <v>2.95</v>
       </c>
       <c r="N32" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O32" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P32" t="n">
         <v>1.4</v>
@@ -4290,19 +4290,19 @@
         <v>1.91</v>
       </c>
       <c r="T32" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V32" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W32" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y32" t="n">
         <v>32</v>
@@ -4323,19 +4323,19 @@
         <v>500</v>
       </c>
       <c r="AE32" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AF32" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG32" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ32" t="n">
         <v>29</v>
@@ -4373,13 +4373,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J33" t="n">
         <v>1.11</v>
@@ -4739,70 +4739,70 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J36" t="n">
         <v>1.04</v>
       </c>
       <c r="K36" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.21</v>
       </c>
       <c r="M36" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="N36" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O36" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="P36" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R36" t="n">
         <v>1.6</v>
       </c>
       <c r="S36" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T36" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="U36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V36" t="n">
         <v>8.25</v>
       </c>
       <c r="W36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="X36" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
         <v>45</v>
@@ -4811,10 +4811,10 @@
         <v>300</v>
       </c>
       <c r="AE36" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG36" t="n">
         <v>13</v>
@@ -6080,22 +6080,22 @@
         <v>1.34</v>
       </c>
       <c r="H47" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="I47" t="n">
         <v>9.5</v>
       </c>
       <c r="J47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="L47" t="n">
         <v>1.27</v>
       </c>
       <c r="M47" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N47" t="n">
         <v>1.8</v>
@@ -6116,10 +6116,10 @@
         <v>1.62</v>
       </c>
       <c r="T47" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U47" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="V47" t="n">
         <v>8.5</v>
@@ -6128,43 +6128,43 @@
         <v>8</v>
       </c>
       <c r="X47" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y47" t="n">
         <v>32</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA47" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC47" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD47" t="n">
         <v>600</v>
       </c>
       <c r="AE47" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG47" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH47" t="n">
         <v>300</v>
       </c>
       <c r="AI47" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AJ47" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
@@ -6682,7 +6682,7 @@
         <v>2.6</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I52" t="n">
         <v>2.47</v>
@@ -6753,7 +6753,7 @@
         <v>12</v>
       </c>
       <c r="AG52" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH52" t="n">
         <v>26</v>
@@ -7087,10 +7087,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H56" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
         <v>1.25</v>
@@ -7098,10 +7098,10 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M56" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N56" t="n">
         <v>1.83</v>
@@ -7116,22 +7116,22 @@
         <v>2.57</v>
       </c>
       <c r="R56" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="S56" t="n">
         <v>1.5</v>
       </c>
       <c r="T56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="V56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W56" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="X56" t="n">
         <v>81</v>
@@ -7161,16 +7161,16 @@
         <v>5.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH56" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI56" t="n">
         <v>13</v>
       </c>
       <c r="AJ56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
@@ -7580,10 +7580,10 @@
         <v>1.91</v>
       </c>
       <c r="J60" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L60" t="n">
         <v>1.5</v>
@@ -7693,13 +7693,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H61" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I61" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
         <v>1.08</v>
@@ -7726,16 +7726,16 @@
         <v>2.5</v>
       </c>
       <c r="R61" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S61" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T61" t="n">
         <v>5.5</v>
       </c>
       <c r="U61" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V61" t="n">
         <v>9</v>
@@ -7753,13 +7753,13 @@
         <v>8</v>
       </c>
       <c r="AA61" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB61" t="n">
         <v>21</v>
       </c>
       <c r="AC61" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD61" t="n">
         <v>101</v>
@@ -7771,13 +7771,13 @@
         <v>26</v>
       </c>
       <c r="AG61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH61" t="n">
         <v>51</v>
       </c>
       <c r="AI61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ61" t="n">
         <v>51</v>
@@ -8202,10 +8202,10 @@
         <v>3.75</v>
       </c>
       <c r="N65" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O65" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P65" t="n">
         <v>1.4</v>
@@ -8303,19 +8303,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="H66" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I66" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="J66" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K66" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L66" t="n">
         <v>1.2</v>
@@ -8336,34 +8336,34 @@
         <v>3.25</v>
       </c>
       <c r="R66" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S66" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
       </c>
       <c r="U66" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W66" t="n">
         <v>51</v>
       </c>
       <c r="X66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z66" t="n">
         <v>13</v>
       </c>
       <c r="AA66" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB66" t="n">
         <v>15</v>
@@ -8375,16 +8375,16 @@
         <v>151</v>
       </c>
       <c r="AE66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF66" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>9</v>
       </c>
       <c r="AG66" t="n">
         <v>8.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI66" t="n">
         <v>13</v>
@@ -8425,10 +8425,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="H67" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I67" t="n">
         <v>2.22</v>
@@ -8437,37 +8437,37 @@
         <v>1.05</v>
       </c>
       <c r="K67" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L67" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M67" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="N67" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="O67" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="P67" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="R67" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S67" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="T67" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="U67" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V67" t="n">
         <v>10.25</v>
@@ -8479,28 +8479,28 @@
         <v>22</v>
       </c>
       <c r="Y67" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z67" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AA67" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AB67" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD67" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE67" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG67" t="n">
         <v>9</v>
@@ -8509,10 +8509,10 @@
         <v>22</v>
       </c>
       <c r="AI67" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ67" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="H68" t="n">
         <v>3.55</v>
@@ -8559,7 +8559,7 @@
         <v>1.05</v>
       </c>
       <c r="K68" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="L68" t="n">
         <v>1.25</v>
@@ -8604,7 +8604,7 @@
         <v>40</v>
       </c>
       <c r="Z68" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA68" t="n">
         <v>7.1</v>
@@ -8622,7 +8622,7 @@
         <v>7.8</v>
       </c>
       <c r="AF68" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG68" t="n">
         <v>8</v>
@@ -8669,10 +8669,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I69" t="n">
         <v>5.7</v>
@@ -8702,49 +8702,49 @@
         <v>2.95</v>
       </c>
       <c r="R69" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S69" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T69" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="U69" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="V69" t="n">
         <v>8</v>
       </c>
       <c r="W69" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X69" t="n">
         <v>11.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z69" t="n">
         <v>8.25</v>
       </c>
       <c r="AA69" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB69" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE69" t="n">
         <v>17</v>
       </c>
-      <c r="AC69" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AF69" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG69" t="n">
         <v>18.5</v>
@@ -8791,94 +8791,94 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="H70" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I70" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="J70" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K70" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="L70" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="M70" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="N70" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="O70" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="P70" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q70" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="R70" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S70" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T70" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U70" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V70" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W70" t="n">
         <v>150</v>
       </c>
       <c r="X70" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y70" t="n">
         <v>45</v>
       </c>
       <c r="Z70" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA70" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC70" t="n">
         <v>50</v>
       </c>
       <c r="AD70" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE70" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH70" t="n">
         <v>10.5</v>
       </c>
-      <c r="AF70" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>11</v>
-      </c>
       <c r="AI70" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ70" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="71">
@@ -9285,7 +9285,7 @@
         <v>4.5</v>
       </c>
       <c r="I74" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J74" t="n">
         <v>1.03</v>
@@ -9294,31 +9294,31 @@
         <v>17</v>
       </c>
       <c r="L74" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M74" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N74" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O74" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P74" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q74" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R74" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S74" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T74" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U74" t="n">
         <v>8.5</v>
@@ -9339,7 +9339,7 @@
         <v>17</v>
       </c>
       <c r="AA74" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB74" t="n">
         <v>15</v>
@@ -9348,7 +9348,7 @@
         <v>41</v>
       </c>
       <c r="AD74" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE74" t="n">
         <v>17</v>
@@ -9366,7 +9366,7 @@
         <v>41</v>
       </c>
       <c r="AJ74" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
@@ -10011,19 +10011,19 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="H80" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I80" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="J80" t="n">
         <v>1.06</v>
       </c>
       <c r="K80" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="L80" t="n">
         <v>1.29</v>
@@ -10044,34 +10044,34 @@
         <v>2.67</v>
       </c>
       <c r="R80" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S80" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T80" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="U80" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="V80" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X80" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y80" t="n">
         <v>25</v>
       </c>
       <c r="Z80" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA80" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB80" t="n">
         <v>13.5</v>
@@ -10083,22 +10083,22 @@
         <v>450</v>
       </c>
       <c r="AE80" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF80" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AG80" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AH80" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI80" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ80" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">

--- a/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
@@ -668,10 +668,10 @@
         <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J5" t="n">
         <v>1.06</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.3</v>
@@ -1070,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
         <v>7</v>
@@ -1144,10 +1144,10 @@
         <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
         <v>1.5</v>
@@ -1278,10 +1278,10 @@
         <v>3.25</v>
       </c>
       <c r="N7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
@@ -1516,16 +1516,16 @@
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1632,10 +1632,10 @@
         <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.53</v>
@@ -1766,10 +1766,10 @@
         <v>3.4</v>
       </c>
       <c r="N11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O11" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1888,10 +1888,10 @@
         <v>3.25</v>
       </c>
       <c r="N12" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P12" t="n">
         <v>1.44</v>
@@ -2612,16 +2612,16 @@
         <v>2.87</v>
       </c>
       <c r="N18" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O18" t="n">
         <v>1.7</v>
       </c>
       <c r="P18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="R18" t="n">
         <v>1.9</v>
@@ -2630,13 +2630,13 @@
         <v>1.72</v>
       </c>
       <c r="T18" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="U18" t="n">
         <v>24</v>
       </c>
       <c r="V18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="W18" t="n">
         <v>75</v>
@@ -2666,16 +2666,16 @@
         <v>6.3</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AG18" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH18" t="n">
         <v>12.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>30</v>
@@ -3077,13 +3077,13 @@
         <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K22" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -3095,13 +3095,13 @@
         <v>2.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R22" t="n">
         <v>2.2</v>
@@ -3116,7 +3116,7 @@
         <v>6.5</v>
       </c>
       <c r="V22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W22" t="n">
         <v>10</v>
@@ -3214,10 +3214,10 @@
         <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3566,10 +3566,10 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N26" t="n">
         <v>1.82</v>
@@ -3584,10 +3584,10 @@
         <v>2.47</v>
       </c>
       <c r="R26" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="S26" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="T26" t="n">
         <v>9</v>
@@ -3676,7 +3676,7 @@
         <v>3.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I27" t="n">
         <v>1.91</v>
@@ -3684,16 +3684,16 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="N27" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O27" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P27" t="n">
         <v>1.37</v>
@@ -3702,49 +3702,49 @@
         <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="S27" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="T27" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="U27" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="V27" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W27" t="n">
         <v>45</v>
       </c>
       <c r="X27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z27" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC27" t="n">
         <v>50</v>
       </c>
       <c r="AD27" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AF27" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AG27" t="n">
         <v>7.1</v>
@@ -3756,7 +3756,7 @@
         <v>13</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -3863,7 +3863,7 @@
         <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF28" t="n">
         <v>41</v>
@@ -4035,13 +4035,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>5.4</v>
       </c>
       <c r="I30" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -4056,25 +4056,25 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S30" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T30" t="n">
         <v>13</v>
       </c>
       <c r="U30" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V30" t="n">
         <v>9.25</v>
       </c>
       <c r="W30" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Y30" t="n">
         <v>18</v>
@@ -4086,28 +4086,28 @@
         <v>12.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC30" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD30" t="n">
         <v>250</v>
       </c>
       <c r="AE30" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="n">
         <v>45</v>
@@ -4145,13 +4145,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -4161,39 +4161,39 @@
         <v>1.5</v>
       </c>
       <c r="O31" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S31" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="T31" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="U31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V31" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W31" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X31" t="n">
         <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z31" t="n">
         <v>15.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB31" t="n">
         <v>11.25</v>
@@ -4205,13 +4205,13 @@
         <v>200</v>
       </c>
       <c r="AE31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH31" t="n">
         <v>45</v>
@@ -4255,13 +4255,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I32" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -4284,34 +4284,34 @@
         <v>2.52</v>
       </c>
       <c r="R32" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S32" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T32" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V32" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="W32" t="n">
+        <v>37</v>
+      </c>
+      <c r="X32" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y32" t="n">
         <v>35</v>
-      </c>
-      <c r="X32" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>32</v>
       </c>
       <c r="Z32" t="n">
         <v>9.75</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB32" t="n">
         <v>14</v>
@@ -4323,19 +4323,19 @@
         <v>500</v>
       </c>
       <c r="AE32" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AG32" t="n">
         <v>9</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ32" t="n">
         <v>29</v>
@@ -4373,37 +4373,37 @@
         </is>
       </c>
       <c r="G33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K33" t="n">
         <v>7</v>
       </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="L33" t="n">
         <v>1.5</v>
       </c>
-      <c r="J33" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O33" t="n">
         <v>1.53</v>
       </c>
-      <c r="M33" t="n">
+      <c r="P33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q33" t="n">
         <v>2.38</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.25</v>
       </c>
       <c r="R33" t="n">
         <v>2.75</v>
@@ -4412,28 +4412,28 @@
         <v>1.4</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W33" t="n">
+        <v>101</v>
+      </c>
+      <c r="X33" t="n">
         <v>81</v>
-      </c>
-      <c r="X33" t="n">
-        <v>67</v>
       </c>
       <c r="Y33" t="n">
         <v>81</v>
       </c>
       <c r="Z33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB33" t="n">
         <v>34</v>
@@ -4448,13 +4448,13 @@
         <v>4.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AG33" t="n">
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI33" t="n">
         <v>17</v>
@@ -4617,19 +4617,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>3.25</v>
       </c>
       <c r="I35" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J35" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
         <v>1.36</v>
@@ -4659,7 +4659,7 @@
         <v>6.5</v>
       </c>
       <c r="U35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V35" t="n">
         <v>9</v>
@@ -4671,13 +4671,13 @@
         <v>17</v>
       </c>
       <c r="Y35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z35" t="n">
         <v>8</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB35" t="n">
         <v>17</v>
@@ -4692,10 +4692,10 @@
         <v>10</v>
       </c>
       <c r="AF35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
         <v>41</v>
@@ -5345,31 +5345,31 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="H41" t="n">
         <v>3.05</v>
       </c>
       <c r="I41" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
         <v>1.1</v>
       </c>
       <c r="K41" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L41" t="n">
         <v>1.45</v>
       </c>
       <c r="M41" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="N41" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O41" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P41" t="n">
         <v>1.5</v>
@@ -5378,31 +5378,31 @@
         <v>2.42</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S41" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T41" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="U41" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="V41" t="n">
         <v>9.5</v>
       </c>
       <c r="W41" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X41" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y41" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z41" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AA41" t="n">
         <v>5.9</v>
@@ -5417,19 +5417,19 @@
         <v>900</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG41" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH41" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI41" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ41" t="n">
         <v>45</v>
@@ -5473,7 +5473,7 @@
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J42" t="n">
         <v>1.1</v>
@@ -5711,91 +5711,91 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="H44" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="J44" t="n">
         <v>1.09</v>
       </c>
       <c r="K44" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="L44" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M44" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="N44" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="O44" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P44" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="R44" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S44" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T44" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="U44" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="V44" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W44" t="n">
+        <v>90</v>
+      </c>
+      <c r="X44" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y44" t="n">
         <v>65</v>
       </c>
-      <c r="X44" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>60</v>
-      </c>
       <c r="Z44" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AB44" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD44" t="n">
         <v>900</v>
       </c>
       <c r="AE44" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>8.25</v>
+        <v>7.1</v>
       </c>
       <c r="AG44" t="n">
         <v>8.5</v>
       </c>
       <c r="AH44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI44" t="n">
         <v>16</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>17</v>
       </c>
       <c r="AJ44" t="n">
         <v>35</v>
@@ -5833,25 +5833,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="H45" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I45" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.05</v>
       </c>
       <c r="J45" t="n">
         <v>1.07</v>
       </c>
       <c r="K45" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="L45" t="n">
         <v>1.36</v>
       </c>
       <c r="M45" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="N45" t="n">
         <v>2.05</v>
@@ -5863,37 +5863,37 @@
         <v>1.42</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R45" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S45" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T45" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="U45" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="V45" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W45" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="X45" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y45" t="n">
         <v>32</v>
       </c>
       <c r="Z45" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB45" t="n">
         <v>15.5</v>
@@ -5905,19 +5905,19 @@
         <v>700</v>
       </c>
       <c r="AE45" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF45" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AH45" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ45" t="n">
         <v>40</v>
@@ -6077,13 +6077,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="H47" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="I47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J47" t="n">
         <v>1.05</v>
@@ -6092,7 +6092,7 @@
         <v>7.6</v>
       </c>
       <c r="L47" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M47" t="n">
         <v>3.45</v>
@@ -6101,7 +6101,7 @@
         <v>1.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="P47" t="n">
         <v>1.39</v>
@@ -6110,52 +6110,52 @@
         <v>2.77</v>
       </c>
       <c r="R47" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S47" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T47" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="U47" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="V47" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W47" t="n">
         <v>8.5</v>
       </c>
-      <c r="W47" t="n">
-        <v>8</v>
-      </c>
       <c r="X47" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y47" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z47" t="n">
         <v>7.6</v>
       </c>
       <c r="AA47" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC47" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD47" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF47" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG47" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AH47" t="n">
         <v>300</v>
@@ -6164,7 +6164,7 @@
         <v>120</v>
       </c>
       <c r="AJ47" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
@@ -6205,25 +6205,25 @@
         <v>3.95</v>
       </c>
       <c r="I48" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K48" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="L48" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M48" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N48" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O48" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P48" t="n">
         <v>1.39</v>
@@ -6241,13 +6241,13 @@
         <v>5.7</v>
       </c>
       <c r="U48" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="V48" t="n">
         <v>8.25</v>
       </c>
       <c r="W48" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X48" t="n">
         <v>13</v>
@@ -6256,7 +6256,7 @@
         <v>32</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA48" t="n">
         <v>7.8</v>
@@ -6271,7 +6271,7 @@
         <v>900</v>
       </c>
       <c r="AE48" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF48" t="n">
         <v>45</v>
@@ -6286,7 +6286,7 @@
         <v>90</v>
       </c>
       <c r="AJ48" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
@@ -6321,13 +6321,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H49" t="n">
         <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J49" t="n">
         <v>1.07</v>
@@ -6336,46 +6336,46 @@
         <v>6.9</v>
       </c>
       <c r="L49" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M49" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O49" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P49" t="n">
         <v>1.42</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R49" t="n">
         <v>1.85</v>
       </c>
       <c r="S49" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T49" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="U49" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V49" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X49" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y49" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z49" t="n">
         <v>6.9</v>
@@ -6393,19 +6393,19 @@
         <v>700</v>
       </c>
       <c r="AE49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF49" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AG49" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI49" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ49" t="n">
         <v>40</v>
@@ -6472,10 +6472,10 @@
         <v>2.5</v>
       </c>
       <c r="R50" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S50" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T50" t="n">
         <v>6.3</v>
@@ -6599,7 +6599,7 @@
         <v>10.5</v>
       </c>
       <c r="U51" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V51" t="n">
         <v>10.75</v>
@@ -6632,13 +6632,13 @@
         <v>8.25</v>
       </c>
       <c r="AF51" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AG51" t="n">
         <v>8.75</v>
       </c>
       <c r="AH51" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI51" t="n">
         <v>17</v>
@@ -6753,7 +6753,7 @@
         <v>12</v>
       </c>
       <c r="AG52" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH52" t="n">
         <v>26</v>
@@ -7101,7 +7101,7 @@
         <v>1.24</v>
       </c>
       <c r="M56" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N56" t="n">
         <v>1.83</v>
@@ -7116,7 +7116,7 @@
         <v>2.57</v>
       </c>
       <c r="R56" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S56" t="n">
         <v>1.5</v>
@@ -7702,10 +7702,10 @@
         <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L61" t="n">
         <v>1.36</v>
@@ -8059,19 +8059,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H64" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I64" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J64" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K64" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L64" t="n">
         <v>1.17</v>
@@ -8080,10 +8080,10 @@
         <v>4.5</v>
       </c>
       <c r="N64" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O64" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P64" t="n">
         <v>1.3</v>
@@ -8113,13 +8113,13 @@
         <v>21</v>
       </c>
       <c r="Y64" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z64" t="n">
         <v>15</v>
       </c>
       <c r="AA64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB64" t="n">
         <v>11</v>
@@ -8131,10 +8131,10 @@
         <v>101</v>
       </c>
       <c r="AE64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG64" t="n">
         <v>10</v>
@@ -8146,7 +8146,7 @@
         <v>17</v>
       </c>
       <c r="AJ64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -8181,13 +8181,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H65" t="n">
         <v>3.4</v>
       </c>
       <c r="I65" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J65" t="n">
         <v>1.05</v>
@@ -8202,10 +8202,10 @@
         <v>3.75</v>
       </c>
       <c r="N65" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O65" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P65" t="n">
         <v>1.4</v>
@@ -8214,10 +8214,10 @@
         <v>2.75</v>
       </c>
       <c r="R65" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S65" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T65" t="n">
         <v>9</v>
@@ -8226,16 +8226,16 @@
         <v>12</v>
       </c>
       <c r="V65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X65" t="n">
         <v>19</v>
       </c>
       <c r="Y65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z65" t="n">
         <v>11</v>
@@ -8265,7 +8265,7 @@
         <v>29</v>
       </c>
       <c r="AI65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ65" t="n">
         <v>29</v>
@@ -8425,49 +8425,49 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="H67" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I67" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J67" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K67" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="L67" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="M67" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="N67" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="O67" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="P67" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S67" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="T67" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="U67" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V67" t="n">
         <v>10.25</v>
@@ -8479,28 +8479,28 @@
         <v>22</v>
       </c>
       <c r="Y67" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z67" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AA67" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AB67" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC67" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD67" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE67" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF67" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG67" t="n">
         <v>9</v>
@@ -8509,10 +8509,10 @@
         <v>22</v>
       </c>
       <c r="AI67" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ67" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="H68" t="n">
         <v>3.55</v>
@@ -8565,7 +8565,7 @@
         <v>1.25</v>
       </c>
       <c r="M68" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="N68" t="n">
         <v>1.75</v>
@@ -8574,10 +8574,10 @@
         <v>1.98</v>
       </c>
       <c r="P68" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="R68" t="n">
         <v>1.7</v>
@@ -8586,10 +8586,10 @@
         <v>2.02</v>
       </c>
       <c r="T68" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="U68" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V68" t="n">
         <v>14</v>
@@ -8598,7 +8598,7 @@
         <v>70</v>
       </c>
       <c r="X68" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y68" t="n">
         <v>40</v>
@@ -8616,22 +8616,22 @@
         <v>60</v>
       </c>
       <c r="AD68" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE68" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AF68" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG68" t="n">
         <v>8</v>
       </c>
       <c r="AH68" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI68" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ68" t="n">
         <v>23</v>
@@ -8672,10 +8672,10 @@
         <v>1.5</v>
       </c>
       <c r="H69" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I69" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J69" t="n">
         <v>1.04</v>
@@ -8699,7 +8699,7 @@
         <v>1.35</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="R69" t="n">
         <v>1.78</v>
@@ -8708,19 +8708,19 @@
         <v>1.93</v>
       </c>
       <c r="T69" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="U69" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="V69" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="W69" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X69" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y69" t="n">
         <v>23</v>
@@ -8729,10 +8729,10 @@
         <v>8.25</v>
       </c>
       <c r="AA69" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB69" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC69" t="n">
         <v>70</v>
@@ -8741,10 +8741,10 @@
         <v>500</v>
       </c>
       <c r="AE69" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG69" t="n">
         <v>18.5</v>
@@ -8791,7 +8791,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H70" t="n">
         <v>4.75</v>
@@ -8830,10 +8830,10 @@
         <v>2.2</v>
       </c>
       <c r="T70" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U70" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="V70" t="n">
         <v>21</v>
@@ -8845,7 +8845,7 @@
         <v>60</v>
       </c>
       <c r="Y70" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z70" t="n">
         <v>10</v>
@@ -8863,10 +8863,10 @@
         <v>300</v>
       </c>
       <c r="AE70" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF70" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG70" t="n">
         <v>8.5</v>
@@ -8943,7 +8943,7 @@
         <v>1.3</v>
       </c>
       <c r="Q71" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="R71" t="n">
         <v>1.57</v>
@@ -8985,7 +8985,7 @@
         <v>300</v>
       </c>
       <c r="AE71" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF71" t="n">
         <v>24</v>
@@ -9416,10 +9416,10 @@
         <v>10</v>
       </c>
       <c r="L75" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N75" t="n">
         <v>2.1</v>
@@ -10014,46 +10014,46 @@
         <v>2.18</v>
       </c>
       <c r="H80" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I80" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J80" t="n">
         <v>1.06</v>
       </c>
       <c r="K80" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="L80" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M80" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="N80" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O80" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="P80" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="R80" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S80" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T80" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="U80" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="V80" t="n">
         <v>8.75</v>
@@ -10062,28 +10062,28 @@
         <v>21</v>
       </c>
       <c r="X80" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y80" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z80" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AA80" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB80" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC80" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD80" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE80" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF80" t="n">
         <v>16.5</v>
@@ -10095,7 +10095,7 @@
         <v>40</v>
       </c>
       <c r="AI80" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ80" t="n">
         <v>35</v>
@@ -10136,43 +10136,43 @@
         <v>1.93</v>
       </c>
       <c r="H81" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I81" t="n">
         <v>3.6</v>
       </c>
       <c r="J81" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K81" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="L81" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M81" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N81" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O81" t="n">
         <v>1.75</v>
       </c>
       <c r="P81" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R81" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S81" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T81" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U81" t="n">
         <v>8.75</v>
@@ -10187,10 +10187,10 @@
         <v>16</v>
       </c>
       <c r="Y81" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z81" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA81" t="n">
         <v>6.7</v>
@@ -10205,7 +10205,7 @@
         <v>700</v>
       </c>
       <c r="AE81" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF81" t="n">
         <v>18.5</v>
@@ -10217,7 +10217,7 @@
         <v>50</v>
       </c>
       <c r="AI81" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ81" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
         <v>1.08</v>
@@ -814,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W3" t="n">
         <v>34</v>
@@ -823,7 +823,7 @@
         <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="n">
         <v>8</v>
@@ -847,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH3" t="n">
         <v>23</v>
@@ -1144,10 +1144,10 @@
         <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.5</v>
@@ -1278,10 +1278,10 @@
         <v>3.25</v>
       </c>
       <c r="N7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H8" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
         <v>7.5</v>
@@ -1424,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W8" t="n">
         <v>8.5</v>
@@ -1436,7 +1436,7 @@
         <v>29</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
         <v>10</v>
@@ -1457,7 +1457,7 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>101</v>
@@ -1516,16 +1516,16 @@
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
         <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.25</v>
       </c>
       <c r="J10" t="n">
         <v>1.11</v>
@@ -1650,16 +1650,16 @@
         <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T10" t="n">
         <v>6</v>
@@ -1689,16 +1689,16 @@
         <v>19</v>
       </c>
       <c r="AC10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="n">
         <v>501</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -1766,10 +1766,10 @@
         <v>3.4</v>
       </c>
       <c r="N11" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="O11" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -2831,13 +2831,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="H20" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I20" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2848,10 +2848,10 @@
         <v>2.37</v>
       </c>
       <c r="N20" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="O20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
         <v>1.55</v>
@@ -2866,28 +2866,28 @@
         <v>1.7</v>
       </c>
       <c r="T20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U20" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V20" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
         <v>40</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB20" t="n">
         <v>16</v>
@@ -2899,22 +2899,22 @@
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ20" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -3018,7 +3018,7 @@
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
         <v>6.5</v>
@@ -3199,7 +3199,7 @@
         <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>1.06</v>
@@ -3214,10 +3214,10 @@
         <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3226,19 +3226,19 @@
         <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U23" t="n">
         <v>6</v>
       </c>
-      <c r="U23" t="n">
-        <v>6.5</v>
-      </c>
       <c r="V23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W23" t="n">
         <v>10</v>
@@ -3250,7 +3250,7 @@
         <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA23" t="n">
         <v>7.5</v>
@@ -3259,22 +3259,22 @@
         <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="n">
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG23" t="n">
         <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="n">
         <v>51</v>
@@ -3673,13 +3673,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3690,10 +3690,10 @@
         <v>3.25</v>
       </c>
       <c r="N27" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O27" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P27" t="n">
         <v>1.37</v>
@@ -3702,61 +3702,61 @@
         <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="T27" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="U27" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="V27" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="W27" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="X27" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y27" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z27" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA27" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE27" t="n">
         <v>5.4</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AF27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH27" t="n">
         <v>11.75</v>
       </c>
-      <c r="AC27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AI27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -3812,28 +3812,28 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O28" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U28" t="n">
         <v>6</v>
-      </c>
-      <c r="U28" t="n">
-        <v>5.5</v>
       </c>
       <c r="V28" t="n">
         <v>9</v>
@@ -3875,7 +3875,7 @@
         <v>126</v>
       </c>
       <c r="AI28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ28" t="n">
         <v>67</v>
@@ -4038,46 +4038,46 @@
         <v>1.3</v>
       </c>
       <c r="H30" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I30" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S30" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U30" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V30" t="n">
         <v>9.25</v>
       </c>
       <c r="W30" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X30" t="n">
         <v>9.75</v>
       </c>
       <c r="Y30" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z30" t="n">
         <v>26</v>
@@ -4382,16 +4382,16 @@
         <v>1.44</v>
       </c>
       <c r="J33" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N33" t="n">
         <v>2.4</v>
@@ -4495,13 +4495,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H34" t="n">
         <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
         <v>1.1</v>
@@ -4537,7 +4537,7 @@
         <v>6</v>
       </c>
       <c r="U34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V34" t="n">
         <v>9.5</v>
@@ -4567,7 +4567,7 @@
         <v>501</v>
       </c>
       <c r="AE34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF34" t="n">
         <v>17</v>
@@ -4626,10 +4626,10 @@
         <v>3.9</v>
       </c>
       <c r="J35" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L35" t="n">
         <v>1.36</v>
@@ -4638,10 +4638,10 @@
         <v>3</v>
       </c>
       <c r="N35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O35" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P35" t="n">
         <v>1.5</v>
@@ -4745,37 +4745,37 @@
         <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J36" t="n">
         <v>1.04</v>
       </c>
       <c r="K36" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L36" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M36" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="N36" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O36" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="P36" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="R36" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="S36" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="T36" t="n">
         <v>9.25</v>
@@ -4787,34 +4787,34 @@
         <v>8.25</v>
       </c>
       <c r="W36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X36" t="n">
         <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD36" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE36" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG36" t="n">
         <v>13</v>
@@ -4826,7 +4826,7 @@
         <v>32</v>
       </c>
       <c r="AJ36" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -4861,13 +4861,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="H37" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I37" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="J37" t="n">
         <v>1.03</v>
@@ -4879,40 +4879,40 @@
         <v>1.14</v>
       </c>
       <c r="M37" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="N37" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="O37" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="P37" t="n">
         <v>1.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="R37" t="n">
         <v>1.42</v>
       </c>
       <c r="S37" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="T37" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="U37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V37" t="n">
         <v>10.25</v>
       </c>
       <c r="W37" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X37" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y37" t="n">
         <v>20</v>
@@ -4930,7 +4930,7 @@
         <v>32</v>
       </c>
       <c r="AD37" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AE37" t="n">
         <v>13.5</v>
@@ -4942,7 +4942,7 @@
         <v>9.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI37" t="n">
         <v>15.5</v>
@@ -5467,13 +5467,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.67</v>
+        <v>2.32</v>
       </c>
       <c r="H42" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I42" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
         <v>1.1</v>
@@ -5488,10 +5488,10 @@
         <v>2.5</v>
       </c>
       <c r="N42" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="O42" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P42" t="n">
         <v>1.55</v>
@@ -5500,25 +5500,25 @@
         <v>2.3</v>
       </c>
       <c r="R42" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S42" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T42" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="U42" t="n">
-        <v>11.75</v>
+        <v>9.75</v>
       </c>
       <c r="V42" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="W42" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="X42" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y42" t="n">
         <v>45</v>
@@ -5527,34 +5527,34 @@
         <v>5.8</v>
       </c>
       <c r="AA42" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB42" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD42" t="n">
         <v>101</v>
       </c>
       <c r="AE42" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AF42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG42" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG42" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH42" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AI42" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AJ42" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
@@ -6077,22 +6077,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H47" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="I47" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="J47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K47" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="L47" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M47" t="n">
         <v>3.45</v>
@@ -6104,10 +6104,10 @@
         <v>1.91</v>
       </c>
       <c r="P47" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="R47" t="n">
         <v>2.1</v>
@@ -6116,10 +6116,10 @@
         <v>1.65</v>
       </c>
       <c r="T47" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U47" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="V47" t="n">
         <v>8.25</v>
@@ -6134,7 +6134,7 @@
         <v>30</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA47" t="n">
         <v>8.5</v>
@@ -6146,10 +6146,10 @@
         <v>110</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF47" t="n">
         <v>65</v>
@@ -7098,16 +7098,16 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M56" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N56" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P56" t="n">
         <v>1.39</v>
@@ -7336,10 +7336,10 @@
         <v>8</v>
       </c>
       <c r="J58" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L58" t="n">
         <v>1.33</v>
@@ -7348,10 +7348,10 @@
         <v>3.25</v>
       </c>
       <c r="N58" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O58" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P58" t="n">
         <v>1.44</v>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I62" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="J62" t="n">
         <v>1.11</v>
@@ -7848,25 +7848,25 @@
         <v>2.2</v>
       </c>
       <c r="R62" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S62" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T62" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="U62" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W62" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X62" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y62" t="n">
         <v>41</v>
@@ -7875,7 +7875,7 @@
         <v>6.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB62" t="n">
         <v>21</v>
@@ -7887,22 +7887,22 @@
         <v>101</v>
       </c>
       <c r="AE62" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF62" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH62" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ62" t="n">
         <v>41</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="63">
@@ -8062,16 +8062,16 @@
         <v>2.8</v>
       </c>
       <c r="H64" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I64" t="n">
         <v>2.45</v>
       </c>
       <c r="J64" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K64" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L64" t="n">
         <v>1.17</v>
@@ -8119,7 +8119,7 @@
         <v>15</v>
       </c>
       <c r="AA64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB64" t="n">
         <v>11</v>
@@ -8312,22 +8312,22 @@
         <v>1.57</v>
       </c>
       <c r="J66" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L66" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M66" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N66" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O66" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P66" t="n">
         <v>1.33</v>
@@ -8672,10 +8672,10 @@
         <v>1.5</v>
       </c>
       <c r="H69" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I69" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J69" t="n">
         <v>1.04</v>
@@ -8708,19 +8708,19 @@
         <v>1.93</v>
       </c>
       <c r="T69" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U69" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="V69" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W69" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="X69" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Y69" t="n">
         <v>23</v>
@@ -9178,10 +9178,10 @@
         <v>4.33</v>
       </c>
       <c r="N73" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O73" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P73" t="n">
         <v>1.33</v>
@@ -9294,16 +9294,16 @@
         <v>17</v>
       </c>
       <c r="L74" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M74" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N74" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O74" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P74" t="n">
         <v>1.29</v>
@@ -10029,25 +10029,25 @@
         <v>1.31</v>
       </c>
       <c r="M80" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N80" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O80" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P80" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R80" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S80" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T80" t="n">
         <v>7.8</v>
@@ -10074,16 +10074,16 @@
         <v>6.3</v>
       </c>
       <c r="AB80" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC80" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD80" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE80" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF80" t="n">
         <v>16.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-23.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
         <v>1.29</v>
@@ -698,16 +698,16 @@
         <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" t="n">
         <v>26</v>
@@ -719,16 +719,16 @@
         <v>501</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI2" t="n">
         <v>67</v>
@@ -906,10 +906,10 @@
         <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N4" t="n">
         <v>2.3</v>
@@ -1025,7 +1025,7 @@
         <v>1.06</v>
       </c>
       <c r="K5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
         <v>1.3</v>
@@ -1144,10 +1144,10 @@
         <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
         <v>1.5</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>1.11</v>
@@ -1766,10 +1766,10 @@
         <v>3.4</v>
       </c>
       <c r="N11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O11" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
         <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.03</v>
@@ -2031,13 +2031,13 @@
         <v>9</v>
       </c>
       <c r="U13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V13" t="n">
         <v>8.5</v>
       </c>
       <c r="W13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -2394,13 +2394,13 @@
         <v>2.25</v>
       </c>
       <c r="T16" t="n">
+        <v>13</v>
+      </c>
+      <c r="U16" t="n">
+        <v>19</v>
+      </c>
+      <c r="V16" t="n">
         <v>12</v>
-      </c>
-      <c r="U16" t="n">
-        <v>17</v>
-      </c>
-      <c r="V16" t="n">
-        <v>11</v>
       </c>
       <c r="W16" t="n">
         <v>34</v>
@@ -2409,7 +2409,7 @@
         <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z16" t="n">
         <v>15</v>
@@ -2430,13 +2430,13 @@
         <v>10</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
         <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -2958,13 +2958,13 @@
         <v>1.42</v>
       </c>
       <c r="J21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K21" t="n">
         <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M21" t="n">
         <v>3.75</v>
@@ -3214,10 +3214,10 @@
         <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3702,10 +3702,10 @@
         <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S27" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T27" t="n">
         <v>9.5</v>
@@ -3800,19 +3800,19 @@
         <v>10</v>
       </c>
       <c r="J28" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O28" t="n">
         <v>2.05</v>
@@ -3827,7 +3827,7 @@
         <v>2.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T28" t="n">
         <v>6.5</v>
@@ -3922,13 +3922,13 @@
         <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K29" t="n">
         <v>15</v>
       </c>
       <c r="L29" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M29" t="n">
         <v>4.33</v>
@@ -3946,7 +3946,7 @@
         <v>3.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S29" t="n">
         <v>2.05</v>
@@ -4148,52 +4148,56 @@
         <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4.9</v>
+      </c>
       <c r="N31" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O31" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S31" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="T31" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="U31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V31" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W31" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X31" t="n">
         <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z31" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB31" t="n">
         <v>11.25</v>
@@ -4202,13 +4206,13 @@
         <v>35</v>
       </c>
       <c r="AD31" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
         <v>11.25</v>
@@ -4217,10 +4221,10 @@
         <v>45</v>
       </c>
       <c r="AI31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
@@ -4373,19 +4377,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H33" t="n">
         <v>4.33</v>
       </c>
       <c r="I33" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J33" t="n">
         <v>1.08</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.44</v>
@@ -4412,7 +4416,7 @@
         <v>1.4</v>
       </c>
       <c r="T33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U33" t="n">
         <v>41</v>
@@ -4421,7 +4425,7 @@
         <v>26</v>
       </c>
       <c r="W33" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="X33" t="n">
         <v>81</v>
@@ -4430,10 +4434,10 @@
         <v>81</v>
       </c>
       <c r="Z33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB33" t="n">
         <v>34</v>
@@ -4739,13 +4743,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I36" t="n">
-        <v>3.95</v>
+        <v>4.25</v>
       </c>
       <c r="J36" t="n">
         <v>1.04</v>
@@ -4757,13 +4761,13 @@
         <v>1.19</v>
       </c>
       <c r="M36" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="N36" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O36" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="P36" t="n">
         <v>1.31</v>
@@ -4772,25 +4776,25 @@
         <v>3.15</v>
       </c>
       <c r="R36" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S36" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="T36" t="n">
         <v>9.25</v>
       </c>
       <c r="U36" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V36" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W36" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y36" t="n">
         <v>19.5</v>
@@ -4799,34 +4803,34 @@
         <v>8.75</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AB36" t="n">
         <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD36" t="n">
         <v>250</v>
       </c>
       <c r="AE36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF36" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI36" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>32</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -6080,10 +6084,10 @@
         <v>1.37</v>
       </c>
       <c r="H47" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="I47" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="J47" t="n">
         <v>1.06</v>
@@ -6101,7 +6105,7 @@
         <v>1.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="P47" t="n">
         <v>1.4</v>
@@ -6110,10 +6114,10 @@
         <v>2.75</v>
       </c>
       <c r="R47" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S47" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T47" t="n">
         <v>6</v>
@@ -6128,7 +6132,7 @@
         <v>8.5</v>
       </c>
       <c r="X47" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y47" t="n">
         <v>30</v>
@@ -6137,13 +6141,13 @@
         <v>7.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC47" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD47" t="n">
         <v>900</v>
@@ -6155,13 +6159,13 @@
         <v>65</v>
       </c>
       <c r="AG47" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH47" t="n">
         <v>300</v>
       </c>
       <c r="AI47" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ47" t="n">
         <v>90</v>
@@ -7580,13 +7584,13 @@
         <v>1.91</v>
       </c>
       <c r="J60" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K60" t="n">
         <v>7</v>
       </c>
       <c r="L60" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M60" t="n">
         <v>2.5</v>
@@ -7702,13 +7706,13 @@
         <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K61" t="n">
         <v>9</v>
       </c>
       <c r="L61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
@@ -7815,25 +7819,25 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="K62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L62" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M62" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="N62" t="n">
         <v>2.7</v>
@@ -7842,10 +7846,10 @@
         <v>1.44</v>
       </c>
       <c r="P62" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R62" t="n">
         <v>2.2</v>
@@ -7854,19 +7858,19 @@
         <v>1.62</v>
       </c>
       <c r="T62" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U62" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W62" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y62" t="n">
         <v>41</v>
@@ -7875,7 +7879,7 @@
         <v>6.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB62" t="n">
         <v>21</v>
@@ -7887,19 +7891,19 @@
         <v>101</v>
       </c>
       <c r="AE62" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH62" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AI62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ62" t="n">
         <v>41</v>
@@ -7946,13 +7950,13 @@
         <v>2.45</v>
       </c>
       <c r="J63" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K63" t="n">
         <v>11</v>
       </c>
       <c r="L63" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M63" t="n">
         <v>3.5</v>
@@ -8202,10 +8206,10 @@
         <v>3.75</v>
       </c>
       <c r="N65" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O65" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P65" t="n">
         <v>1.4</v>
@@ -9035,25 +9039,25 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H72" t="n">
         <v>3.6</v>
       </c>
       <c r="I72" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J72" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L72" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M72" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N72" t="n">
         <v>2</v>
@@ -9074,13 +9078,13 @@
         <v>1.83</v>
       </c>
       <c r="T72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U72" t="n">
         <v>21</v>
       </c>
       <c r="V72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W72" t="n">
         <v>41</v>
@@ -9401,19 +9405,19 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H75" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I75" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J75" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K75" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L75" t="n">
         <v>1.33</v>
@@ -9440,7 +9444,7 @@
         <v>1.8</v>
       </c>
       <c r="T75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U75" t="n">
         <v>21</v>
@@ -9449,7 +9453,7 @@
         <v>15</v>
       </c>
       <c r="W75" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X75" t="n">
         <v>41</v>
@@ -9458,7 +9462,7 @@
         <v>41</v>
       </c>
       <c r="Z75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA75" t="n">
         <v>6.5</v>
@@ -9485,7 +9489,7 @@
         <v>15</v>
       </c>
       <c r="AI75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ75" t="n">
         <v>29</v>
